--- a/Semestre 1/Contabilidad Financiera (NIIF)/Todos los ejemplos de clase Sep de 2022 para ampliar clase.xlsx
+++ b/Semestre 1/Contabilidad Financiera (NIIF)/Todos los ejemplos de clase Sep de 2022 para ampliar clase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NIGOJ\OneDrive\Desktop\NICO\MAF\Semestre 1\Contabilidad Financiera (NIIF)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA3607F-00D5-4BB4-9C28-1D0708042A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED72A11-DC59-4C71-9F29-F3C29C19B19D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="25" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1535,7 +1535,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2912" uniqueCount="1134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2913" uniqueCount="1135">
   <si>
     <r>
       <t xml:space="preserve">COMPAÑIA LAS SABROSITAS SAS </t>
@@ -5095,6 +5095,22 @@
   <si>
     <t>a DICIEMBRE 31 DE 2021</t>
   </si>
+  <si>
+    <r>
+      <t>Pago de Impuestos</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Operación)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -5119,8 +5135,8 @@
     <numFmt numFmtId="175" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="#,##0_ ;\-#,##0\ "/>
     <numFmt numFmtId="177" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="181" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="182" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="64" x14ac:knownFonts="1">
     <font>
@@ -6533,7 +6549,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1209">
+  <cellXfs count="1210">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -7916,6 +7932,237 @@
     <xf numFmtId="42" fontId="33" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="62" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="30" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="30" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="27" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="27" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="27" fillId="0" borderId="40" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="27" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="30" fillId="0" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="27" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="27" fillId="0" borderId="41" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="27" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="27" fillId="0" borderId="42" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="33" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="27" fillId="0" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="27" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="27" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="61" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="42" fontId="62" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="30" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="33" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="30" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="30" fillId="7" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="30" fillId="7" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="33" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="27" fillId="7" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="31" fillId="7" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="27" fillId="7" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="27" fillId="7" borderId="40" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="27" fillId="4" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="33" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="27" fillId="4" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="27" fillId="4" borderId="41" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="30" fillId="30" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="42" fontId="33" fillId="30" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="170" fontId="30" fillId="30" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="27" fillId="30" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="27" fillId="30" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="27" fillId="30" borderId="40" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="27" fillId="30" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="27" fillId="30" borderId="42" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="27" fillId="36" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="27" fillId="36" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="178" fontId="33" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="28" fillId="20" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="28" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7933,6 +8180,15 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7970,12 +8226,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8006,16 +8256,16 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8023,10 +8273,20 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -8037,17 +8297,23 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="30" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="39" fillId="30" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="39" fillId="30" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8057,35 +8323,34 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="20" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="20" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
@@ -8116,24 +8381,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="20" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="20" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8358,6 +8605,78 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8369,38 +8688,11 @@
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="42" fontId="33" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="4" applyFont="1"/>
@@ -8425,311 +8717,38 @@
     <xf numFmtId="0" fontId="27" fillId="20" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="42" fontId="33" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="62" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="30" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="30" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="27" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="170" fontId="27" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="170" fontId="27" fillId="0" borderId="40" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="27" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="170" fontId="30" fillId="0" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="170" fontId="27" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="27" fillId="0" borderId="41" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="27" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="27" fillId="0" borderId="42" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="33" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="27" fillId="0" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="27" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="170" fontId="27" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="61" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="42" fontId="62" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="30" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="33" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="37" fillId="7" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="30" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="30" fillId="7" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="30" fillId="7" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="33" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="27" fillId="7" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="31" fillId="7" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="170" fontId="27" fillId="7" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="170" fontId="27" fillId="7" borderId="40" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="27" fillId="4" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="33" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="27" fillId="4" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="170" fontId="27" fillId="4" borderId="41" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="170" fontId="30" fillId="30" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="42" fontId="33" fillId="30" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="170" fontId="30" fillId="30" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="27" fillId="30" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="170" fontId="27" fillId="30" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="170" fontId="27" fillId="30" borderId="40" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="27" fillId="30" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="27" fillId="30" borderId="42" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="170" fontId="27" fillId="36" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="170" fontId="27" fillId="36" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="181" fontId="33" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="28" fillId="20" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="28" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -31919,15 +31938,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B1" s="978" t="s">
+      <c r="B1" s="1079" t="s">
         <v>390</v>
       </c>
-      <c r="C1" s="978"/>
-      <c r="D1" s="978"/>
-      <c r="E1" s="978"/>
-      <c r="F1" s="978"/>
-      <c r="G1" s="978"/>
-      <c r="H1" s="978"/>
+      <c r="C1" s="1079"/>
+      <c r="D1" s="1079"/>
+      <c r="E1" s="1079"/>
+      <c r="F1" s="1079"/>
+      <c r="G1" s="1079"/>
+      <c r="H1" s="1079"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -31984,14 +32003,14 @@
       <c r="A10" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B10" s="976" t="s">
+      <c r="B10" s="1077" t="s">
         <v>401</v>
       </c>
-      <c r="C10" s="976"/>
-      <c r="D10" s="976"/>
-      <c r="E10" s="976"/>
-      <c r="F10" s="976"/>
-      <c r="G10" s="976"/>
+      <c r="C10" s="1077"/>
+      <c r="D10" s="1077"/>
+      <c r="E10" s="1077"/>
+      <c r="F10" s="1077"/>
+      <c r="G10" s="1077"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
@@ -32321,15 +32340,15 @@
       <c r="A24" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="B24" s="979" t="s">
+      <c r="B24" s="1080" t="s">
         <v>410</v>
       </c>
-      <c r="C24" s="979"/>
-      <c r="D24" s="979"/>
-      <c r="E24" s="979"/>
-      <c r="F24" s="979"/>
-      <c r="G24" s="979"/>
-      <c r="H24" s="979"/>
+      <c r="C24" s="1080"/>
+      <c r="D24" s="1080"/>
+      <c r="E24" s="1080"/>
+      <c r="F24" s="1080"/>
+      <c r="G24" s="1080"/>
+      <c r="H24" s="1080"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B25" s="13" t="s">
@@ -32623,15 +32642,15 @@
       <c r="A39" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="B39" s="980" t="s">
+      <c r="B39" s="1081" t="s">
         <v>412</v>
       </c>
-      <c r="C39" s="980"/>
-      <c r="D39" s="980"/>
-      <c r="E39" s="980"/>
-      <c r="F39" s="980"/>
-      <c r="G39" s="980"/>
-      <c r="H39" s="980"/>
+      <c r="C39" s="1081"/>
+      <c r="D39" s="1081"/>
+      <c r="E39" s="1081"/>
+      <c r="F39" s="1081"/>
+      <c r="G39" s="1081"/>
+      <c r="H39" s="1081"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B40" s="19" t="s">
@@ -33009,15 +33028,15 @@
       <c r="A53" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B53" s="981" t="s">
+      <c r="B53" s="1082" t="s">
         <v>415</v>
       </c>
-      <c r="C53" s="982"/>
-      <c r="D53" s="982"/>
-      <c r="E53" s="982"/>
-      <c r="F53" s="982"/>
-      <c r="G53" s="982"/>
-      <c r="H53" s="982"/>
+      <c r="C53" s="1083"/>
+      <c r="D53" s="1083"/>
+      <c r="E53" s="1083"/>
+      <c r="F53" s="1083"/>
+      <c r="G53" s="1083"/>
+      <c r="H53" s="1083"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B54" s="26" t="s">
@@ -33401,14 +33420,14 @@
       </c>
     </row>
     <row r="69" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B69" s="983" t="s">
+      <c r="B69" s="1084" t="s">
         <v>417</v>
       </c>
-      <c r="C69" s="983"/>
-      <c r="D69" s="983"/>
-      <c r="E69" s="983"/>
-      <c r="F69" s="983"/>
-      <c r="G69" s="983"/>
+      <c r="C69" s="1084"/>
+      <c r="D69" s="1084"/>
+      <c r="E69" s="1084"/>
+      <c r="F69" s="1084"/>
+      <c r="G69" s="1084"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B70" s="32" t="s">
@@ -33684,14 +33703,14 @@
       <c r="A89" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="B89" s="976" t="s">
+      <c r="B89" s="1077" t="s">
         <v>401</v>
       </c>
-      <c r="C89" s="976"/>
-      <c r="D89" s="976"/>
-      <c r="E89" s="976"/>
-      <c r="F89" s="976"/>
-      <c r="G89" s="976"/>
+      <c r="C89" s="1077"/>
+      <c r="D89" s="1077"/>
+      <c r="E89" s="1077"/>
+      <c r="F89" s="1077"/>
+      <c r="G89" s="1077"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B90" s="4" t="s">
@@ -34074,16 +34093,16 @@
       <c r="A108" s="25" t="s">
         <v>421</v>
       </c>
-      <c r="B108" s="977" t="s">
+      <c r="B108" s="1078" t="s">
         <v>415</v>
       </c>
-      <c r="C108" s="977"/>
-      <c r="D108" s="977"/>
-      <c r="E108" s="977"/>
-      <c r="F108" s="977"/>
-      <c r="G108" s="977"/>
-      <c r="H108" s="977"/>
-      <c r="I108" s="977"/>
+      <c r="C108" s="1078"/>
+      <c r="D108" s="1078"/>
+      <c r="E108" s="1078"/>
+      <c r="F108" s="1078"/>
+      <c r="G108" s="1078"/>
+      <c r="H108" s="1078"/>
+      <c r="I108" s="1078"/>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B109" s="26" t="s">
@@ -35355,10 +35374,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="896" t="s">
+      <c r="A1" s="997" t="s">
         <v>471</v>
       </c>
-      <c r="B1" s="896"/>
+      <c r="B1" s="997"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
@@ -36540,7 +36559,7 @@
       <c r="D49" s="80" t="s">
         <v>513</v>
       </c>
-      <c r="E49" s="984" t="s">
+      <c r="E49" s="1085" t="s">
         <v>514</v>
       </c>
       <c r="F49" t="s">
@@ -36559,7 +36578,7 @@
       <c r="D50" s="240" t="s">
         <v>517</v>
       </c>
-      <c r="E50" s="984"/>
+      <c r="E50" s="1085"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="234" t="s">
@@ -36573,7 +36592,7 @@
       <c r="D52" s="80" t="s">
         <v>519</v>
       </c>
-      <c r="E52" s="984" t="s">
+      <c r="E52" s="1085" t="s">
         <v>514</v>
       </c>
       <c r="F52" t="s">
@@ -36592,7 +36611,7 @@
       <c r="D53" s="80" t="s">
         <v>522</v>
       </c>
-      <c r="E53" s="984"/>
+      <c r="E53" s="1085"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="80" t="s">
@@ -36604,7 +36623,7 @@
       </c>
       <c r="C55" s="80"/>
       <c r="D55" s="80"/>
-      <c r="E55" s="984" t="s">
+      <c r="E55" s="1085" t="s">
         <v>523</v>
       </c>
     </row>
@@ -36618,7 +36637,7 @@
         <v>6.4</v>
       </c>
       <c r="D56" s="240"/>
-      <c r="E56" s="984"/>
+      <c r="E56" s="1085"/>
       <c r="F56" s="241">
         <f>C50+C56</f>
         <v>9.6000000000000014</v>
@@ -36650,7 +36669,7 @@
       </c>
       <c r="C58" s="80"/>
       <c r="D58" s="80"/>
-      <c r="E58" s="984" t="s">
+      <c r="E58" s="1085" t="s">
         <v>526</v>
       </c>
       <c r="O58" s="224">
@@ -36672,7 +36691,7 @@
         <v>9.6</v>
       </c>
       <c r="D59" s="240"/>
-      <c r="E59" s="984"/>
+      <c r="E59" s="1085"/>
       <c r="O59" s="224">
         <f>C59</f>
         <v>9.6</v>
@@ -36702,7 +36721,7 @@
       </c>
       <c r="C61" s="80"/>
       <c r="D61" s="80"/>
-      <c r="E61" s="984" t="s">
+      <c r="E61" s="1085" t="s">
         <v>527</v>
       </c>
       <c r="O61" s="224">
@@ -36724,7 +36743,7 @@
         <v>12.8</v>
       </c>
       <c r="D62" s="240"/>
-      <c r="E62" s="984"/>
+      <c r="E62" s="1085"/>
       <c r="O62" s="242">
         <f>SUM(O57:O61)</f>
         <v>48</v>
@@ -36749,7 +36768,7 @@
       </c>
       <c r="C64" s="80"/>
       <c r="D64" s="80"/>
-      <c r="E64" s="984" t="s">
+      <c r="E64" s="1085" t="s">
         <v>529</v>
       </c>
       <c r="O64" s="224">
@@ -36770,7 +36789,7 @@
         <v>16</v>
       </c>
       <c r="D65" s="240"/>
-      <c r="E65" s="984"/>
+      <c r="E65" s="1085"/>
       <c r="O65" s="224">
         <f>-B73</f>
         <v>-9.6</v>
@@ -36798,7 +36817,7 @@
       </c>
       <c r="C67" s="80"/>
       <c r="D67" s="80"/>
-      <c r="E67" s="984" t="s">
+      <c r="E67" s="1085" t="s">
         <v>528</v>
       </c>
       <c r="O67" s="224">
@@ -36819,7 +36838,7 @@
         <v>16</v>
       </c>
       <c r="D68" s="240"/>
-      <c r="E68" s="984"/>
+      <c r="E68" s="1085"/>
       <c r="O68" s="242">
         <f>SUM(O63:O67)</f>
         <v>-48</v>
@@ -36841,7 +36860,7 @@
       </c>
       <c r="C70" s="234"/>
       <c r="D70" s="80"/>
-      <c r="E70" s="984" t="s">
+      <c r="E70" s="1085" t="s">
         <v>530</v>
       </c>
     </row>
@@ -36857,7 +36876,7 @@
       <c r="D71" s="240" t="s">
         <v>536</v>
       </c>
-      <c r="E71" s="984"/>
+      <c r="E71" s="1085"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" s="80" t="s">
@@ -36869,7 +36888,7 @@
       </c>
       <c r="C73" s="80"/>
       <c r="D73" s="80"/>
-      <c r="E73" s="984" t="s">
+      <c r="E73" s="1085" t="s">
         <v>531</v>
       </c>
     </row>
@@ -36883,7 +36902,7 @@
         <v>9.6</v>
       </c>
       <c r="D74" s="240"/>
-      <c r="E74" s="984"/>
+      <c r="E74" s="1085"/>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" s="80" t="s">
@@ -36895,7 +36914,7 @@
       </c>
       <c r="C76" s="80"/>
       <c r="D76" s="80"/>
-      <c r="E76" s="984" t="s">
+      <c r="E76" s="1085" t="s">
         <v>532</v>
       </c>
     </row>
@@ -36909,7 +36928,7 @@
         <v>6.4</v>
       </c>
       <c r="D77" s="240"/>
-      <c r="E77" s="984"/>
+      <c r="E77" s="1085"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" s="80" t="s">
@@ -36921,7 +36940,7 @@
       </c>
       <c r="C79" s="80"/>
       <c r="D79" s="80"/>
-      <c r="E79" s="984" t="s">
+      <c r="E79" s="1085" t="s">
         <v>534</v>
       </c>
     </row>
@@ -36935,7 +36954,7 @@
         <v>3.2</v>
       </c>
       <c r="D80" s="240"/>
-      <c r="E80" s="984"/>
+      <c r="E80" s="1085"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -36978,24 +36997,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="985" t="s">
+      <c r="A1" s="1086" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="986"/>
+      <c r="B1" s="1087"/>
       <c r="C1" s="112"/>
       <c r="D1" s="112"/>
-      <c r="E1" s="986" t="s">
+      <c r="E1" s="1087" t="s">
         <v>537</v>
       </c>
-      <c r="F1" s="987"/>
-      <c r="I1" s="896" t="s">
+      <c r="F1" s="1088"/>
+      <c r="I1" s="997" t="s">
         <v>538</v>
       </c>
-      <c r="J1" s="896"/>
-      <c r="M1" s="988" t="s">
+      <c r="J1" s="997"/>
+      <c r="M1" s="1089" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="989"/>
+      <c r="N1" s="1090"/>
       <c r="O1" s="118"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -37563,7 +37582,7 @@
       <c r="D20" s="131" t="s">
         <v>585</v>
       </c>
-      <c r="E20" s="995" t="s">
+      <c r="E20" s="1096" t="s">
         <v>606</v>
       </c>
     </row>
@@ -37572,18 +37591,18 @@
         <v>607</v>
       </c>
       <c r="C21" s="46"/>
-      <c r="D21" s="993" t="s">
+      <c r="D21" s="1094" t="s">
         <v>608</v>
       </c>
-      <c r="E21" s="995"/>
+      <c r="E21" s="1096"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B22" s="46" t="s">
         <v>609</v>
       </c>
       <c r="C22" s="46"/>
-      <c r="D22" s="994"/>
-      <c r="E22" s="995"/>
+      <c r="D22" s="1095"/>
+      <c r="E22" s="1096"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B23" s="46" t="s">
@@ -37592,8 +37611,8 @@
       <c r="C23" s="46">
         <v>-20</v>
       </c>
-      <c r="D23" s="994"/>
-      <c r="E23" s="995"/>
+      <c r="D23" s="1095"/>
+      <c r="E23" s="1096"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B24" s="46" t="s">
@@ -37602,63 +37621,63 @@
       <c r="C24" s="46">
         <v>-100</v>
       </c>
-      <c r="D24" s="994"/>
-      <c r="E24" s="995"/>
+      <c r="D24" s="1095"/>
+      <c r="E24" s="1096"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B25" s="46" t="s">
         <v>612</v>
       </c>
       <c r="C25" s="46"/>
-      <c r="D25" s="994"/>
-      <c r="E25" s="995"/>
+      <c r="D25" s="1095"/>
+      <c r="E25" s="1096"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" s="46" t="s">
         <v>613</v>
       </c>
       <c r="C26" s="46"/>
-      <c r="D26" s="994"/>
-      <c r="E26" s="995"/>
+      <c r="D26" s="1095"/>
+      <c r="E26" s="1096"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" s="46" t="s">
         <v>614</v>
       </c>
       <c r="C27" s="46"/>
-      <c r="D27" s="994"/>
-      <c r="E27" s="995"/>
+      <c r="D27" s="1095"/>
+      <c r="E27" s="1096"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" s="46" t="s">
         <v>615</v>
       </c>
       <c r="C28" s="46"/>
-      <c r="D28" s="994"/>
-      <c r="E28" s="995"/>
+      <c r="D28" s="1095"/>
+      <c r="E28" s="1096"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B29" s="46" t="s">
         <v>616</v>
       </c>
       <c r="C29" s="46"/>
-      <c r="D29" s="994"/>
-      <c r="E29" s="995"/>
+      <c r="D29" s="1095"/>
+      <c r="E29" s="1096"/>
     </row>
     <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="46" t="s">
         <v>617</v>
       </c>
       <c r="C30" s="46"/>
-      <c r="D30" s="994"/>
-      <c r="E30" s="995"/>
+      <c r="D30" s="1095"/>
+      <c r="E30" s="1096"/>
     </row>
     <row r="31" spans="1:5" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="79" t="s">
         <v>618</v>
       </c>
-      <c r="D31" s="994"/>
-      <c r="E31" s="995"/>
+      <c r="D31" s="1095"/>
+      <c r="E31" s="1096"/>
     </row>
     <row r="32" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
@@ -37670,10 +37689,10 @@
       <c r="C32" s="44">
         <v>-30</v>
       </c>
-      <c r="D32" s="990" t="s">
+      <c r="D32" s="1091" t="s">
         <v>621</v>
       </c>
-      <c r="E32" s="995"/>
+      <c r="E32" s="1096"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
@@ -37683,8 +37702,8 @@
         <v>623</v>
       </c>
       <c r="C33" s="44"/>
-      <c r="D33" s="991"/>
-      <c r="E33" s="995"/>
+      <c r="D33" s="1092"/>
+      <c r="E33" s="1096"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
@@ -37694,37 +37713,37 @@
         <v>625</v>
       </c>
       <c r="C34" s="44"/>
-      <c r="D34" s="991"/>
-      <c r="E34" s="995"/>
+      <c r="D34" s="1092"/>
+      <c r="E34" s="1096"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B35" s="44" t="s">
         <v>626</v>
       </c>
       <c r="C35" s="44"/>
-      <c r="D35" s="991"/>
-      <c r="E35" s="995"/>
+      <c r="D35" s="1092"/>
+      <c r="E35" s="1096"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B36" s="44" t="s">
         <v>627</v>
       </c>
       <c r="C36" s="44"/>
-      <c r="D36" s="991"/>
-      <c r="E36" s="995"/>
+      <c r="D36" s="1092"/>
+      <c r="E36" s="1096"/>
     </row>
     <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="44" t="s">
         <v>628</v>
       </c>
       <c r="C37" s="44"/>
-      <c r="D37" s="992"/>
-      <c r="E37" s="995"/>
+      <c r="D37" s="1093"/>
+      <c r="E37" s="1096"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B38" s="44"/>
       <c r="C38" s="44"/>
-      <c r="E38" s="995"/>
+      <c r="E38" s="1096"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B39" s="588" t="s">
@@ -37736,7 +37755,7 @@
       <c r="D39" t="s">
         <v>631</v>
       </c>
-      <c r="E39" s="995"/>
+      <c r="E39" s="1096"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
@@ -38590,10 +38609,10 @@
       <c r="D34" s="177"/>
       <c r="E34" s="177"/>
       <c r="F34" s="177"/>
-      <c r="G34" s="996" t="s">
+      <c r="G34" s="1097" t="s">
         <v>4</v>
       </c>
-      <c r="H34" s="996"/>
+      <c r="H34" s="1097"/>
     </row>
     <row r="35" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="162" t="s">
@@ -38613,13 +38632,13 @@
       <c r="K35" s="81">
         <v>4</v>
       </c>
-      <c r="L35" s="997" t="s">
+      <c r="L35" s="1098" t="s">
         <v>281</v>
       </c>
-      <c r="M35" s="996" t="s">
+      <c r="M35" s="1097" t="s">
         <v>704</v>
       </c>
-      <c r="N35" s="996"/>
+      <c r="N35" s="1097"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="163" t="str">
@@ -38630,10 +38649,10 @@
         <v>5</v>
       </c>
       <c r="C36" s="164"/>
-      <c r="D36" s="1014" t="s">
+      <c r="D36" s="1115" t="s">
         <v>597</v>
       </c>
-      <c r="E36" s="1015"/>
+      <c r="E36" s="1116"/>
       <c r="F36" s="177"/>
       <c r="G36" s="81" t="s">
         <v>705</v>
@@ -38653,7 +38672,7 @@
         <f>J36-4</f>
         <v>46</v>
       </c>
-      <c r="L36" s="997"/>
+      <c r="L36" s="1098"/>
     </row>
     <row r="37" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="163" t="s">
@@ -38663,8 +38682,8 @@
       <c r="C37" s="164">
         <v>5</v>
       </c>
-      <c r="D37" s="1016"/>
-      <c r="E37" s="1017"/>
+      <c r="D37" s="1117"/>
+      <c r="E37" s="1118"/>
       <c r="F37" s="177"/>
       <c r="G37" s="81" t="s">
         <v>707</v>
@@ -38684,14 +38703,14 @@
         <f>J37</f>
         <v>-5</v>
       </c>
-      <c r="L37" s="997"/>
+      <c r="L37" s="1098"/>
     </row>
     <row r="38" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="82"/>
-      <c r="D38" s="1010" t="s">
+      <c r="D38" s="1111" t="s">
         <v>708</v>
       </c>
-      <c r="E38" s="1011"/>
+      <c r="E38" s="1112"/>
       <c r="F38" s="177"/>
       <c r="G38" s="105" t="s">
         <v>709</v>
@@ -38712,7 +38731,7 @@
         <f>K36+K37</f>
         <v>41</v>
       </c>
-      <c r="L38" s="997"/>
+      <c r="L38" s="1098"/>
       <c r="M38" s="105" t="s">
         <v>710</v>
       </c>
@@ -38727,8 +38746,8 @@
       </c>
       <c r="B39" s="177"/>
       <c r="C39" s="177"/>
-      <c r="D39" s="1012"/>
-      <c r="E39" s="1013"/>
+      <c r="D39" s="1113"/>
+      <c r="E39" s="1114"/>
       <c r="F39" s="177"/>
       <c r="G39" s="104" t="s">
         <v>712</v>
@@ -38763,10 +38782,10 @@
       </c>
       <c r="B40" s="177"/>
       <c r="C40" s="177"/>
-      <c r="D40" s="998" t="s">
+      <c r="D40" s="1099" t="s">
         <v>715</v>
       </c>
-      <c r="E40" s="999"/>
+      <c r="E40" s="1100"/>
       <c r="F40" s="177"/>
       <c r="G40" s="87" t="s">
         <v>3</v>
@@ -38780,8 +38799,8 @@
         <v>50</v>
       </c>
       <c r="C41" s="179"/>
-      <c r="D41" s="1000"/>
-      <c r="E41" s="1001"/>
+      <c r="D41" s="1101"/>
+      <c r="E41" s="1102"/>
       <c r="F41" s="177"/>
       <c r="G41" s="81" t="s">
         <v>673</v>
@@ -38799,10 +38818,10 @@
       <c r="C42" s="179">
         <v>50</v>
       </c>
-      <c r="D42" s="1002" t="s">
+      <c r="D42" s="1103" t="s">
         <v>716</v>
       </c>
-      <c r="E42" s="1003"/>
+      <c r="E42" s="1104"/>
       <c r="F42" s="177"/>
       <c r="G42" s="81" t="s">
         <v>717</v>
@@ -38820,8 +38839,8 @@
         <v>5</v>
       </c>
       <c r="C43" s="99"/>
-      <c r="D43" s="1004"/>
-      <c r="E43" s="1005"/>
+      <c r="D43" s="1105"/>
+      <c r="E43" s="1106"/>
       <c r="F43" s="177"/>
       <c r="G43" s="87" t="s">
         <v>598</v>
@@ -38839,10 +38858,10 @@
       <c r="C44" s="99">
         <v>5</v>
       </c>
-      <c r="D44" s="1006" t="s">
+      <c r="D44" s="1107" t="s">
         <v>718</v>
       </c>
-      <c r="E44" s="1007"/>
+      <c r="E44" s="1108"/>
       <c r="F44" s="177"/>
     </row>
     <row r="45" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
@@ -38853,8 +38872,8 @@
         <v>4</v>
       </c>
       <c r="C45" s="184"/>
-      <c r="D45" s="1008"/>
-      <c r="E45" s="1009"/>
+      <c r="D45" s="1109"/>
+      <c r="E45" s="1110"/>
       <c r="F45" s="177"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.35">
@@ -38914,10 +38933,10 @@
       <c r="A51" s="82"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B52" s="996" t="s">
+      <c r="B52" s="1097" t="s">
         <v>720</v>
       </c>
-      <c r="C52" s="996"/>
+      <c r="C52" s="1097"/>
       <c r="E52" s="81">
         <v>4</v>
       </c>
@@ -39017,14 +39036,14 @@
       <c r="G3" s="107"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="1018" t="s">
+      <c r="A4" s="1119" t="s">
         <v>725</v>
       </c>
-      <c r="B4" s="1018"/>
-      <c r="C4" s="1018"/>
-      <c r="D4" s="1018"/>
-      <c r="E4" s="1018"/>
-      <c r="F4" s="1018"/>
+      <c r="B4" s="1119"/>
+      <c r="C4" s="1119"/>
+      <c r="D4" s="1119"/>
+      <c r="E4" s="1119"/>
+      <c r="F4" s="1119"/>
       <c r="G4" s="107">
         <v>6000000</v>
       </c>
@@ -39040,12 +39059,12 @@
       <c r="A5" t="s">
         <v>727</v>
       </c>
-      <c r="C5" s="1019" t="s">
+      <c r="C5" s="1120" t="s">
         <v>144</v>
       </c>
-      <c r="D5" s="1019"/>
-      <c r="E5" s="1019"/>
-      <c r="F5" s="1019"/>
+      <c r="D5" s="1120"/>
+      <c r="E5" s="1120"/>
+      <c r="F5" s="1120"/>
       <c r="G5" s="107"/>
       <c r="H5" s="107">
         <f>G4</f>
@@ -39056,25 +39075,25 @@
       <c r="A8" t="s">
         <v>728</v>
       </c>
-      <c r="C8" s="1018" t="s">
+      <c r="C8" s="1119" t="s">
         <v>729</v>
       </c>
-      <c r="D8" s="1018"/>
-      <c r="E8" s="1018"/>
-      <c r="F8" s="1018"/>
+      <c r="D8" s="1119"/>
+      <c r="E8" s="1119"/>
+      <c r="F8" s="1119"/>
       <c r="G8" s="107">
         <v>500000</v>
       </c>
       <c r="H8" s="107"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D9" s="1019" t="str">
+      <c r="D9" s="1120" t="str">
         <f>A4</f>
         <v>ACT: Arrendamientos pagados por anticipado: Activo diferido arredamiento</v>
       </c>
-      <c r="E9" s="1019"/>
-      <c r="F9" s="1019"/>
-      <c r="G9" s="1019"/>
+      <c r="E9" s="1120"/>
+      <c r="F9" s="1120"/>
+      <c r="G9" s="1120"/>
       <c r="H9" s="107">
         <f>G8</f>
         <v>500000</v>
@@ -39124,60 +39143,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="896" t="s">
+      <c r="A1" s="997" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="896"/>
-      <c r="C1" s="896"/>
-      <c r="D1" s="896"/>
-      <c r="E1" s="896"/>
-      <c r="I1" s="896" t="s">
+      <c r="B1" s="997"/>
+      <c r="C1" s="997"/>
+      <c r="D1" s="997"/>
+      <c r="E1" s="997"/>
+      <c r="I1" s="997" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="896"/>
-      <c r="K1" s="896"/>
-      <c r="L1" s="896"/>
+      <c r="J1" s="997"/>
+      <c r="K1" s="997"/>
+      <c r="L1" s="997"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="896" t="s">
+      <c r="A2" s="997" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="896"/>
-      <c r="C2" s="896"/>
-      <c r="D2" s="896"/>
-      <c r="E2" s="896"/>
-      <c r="I2" s="896" t="s">
+      <c r="B2" s="997"/>
+      <c r="C2" s="997"/>
+      <c r="D2" s="997"/>
+      <c r="E2" s="997"/>
+      <c r="I2" s="997" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="896"/>
-      <c r="K2" s="896"/>
-      <c r="L2" s="896"/>
+      <c r="J2" s="997"/>
+      <c r="K2" s="997"/>
+      <c r="L2" s="997"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="897" t="s">
+      <c r="A3" s="998" t="s">
         <v>1123</v>
       </c>
-      <c r="B3" s="897"/>
-      <c r="C3" s="897"/>
-      <c r="D3" s="897"/>
-      <c r="E3" s="897"/>
-      <c r="I3" s="896" t="s">
+      <c r="B3" s="998"/>
+      <c r="C3" s="998"/>
+      <c r="D3" s="998"/>
+      <c r="E3" s="998"/>
+      <c r="I3" s="997" t="s">
         <v>1124</v>
       </c>
-      <c r="J3" s="896"/>
-      <c r="K3" s="896"/>
-      <c r="L3" s="896"/>
+      <c r="J3" s="997"/>
+      <c r="K3" s="997"/>
+      <c r="L3" s="997"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="897" t="s">
+      <c r="A4" s="998" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="897"/>
+      <c r="B4" s="998"/>
       <c r="C4" s="199"/>
-      <c r="D4" s="897" t="s">
+      <c r="D4" s="998" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="897"/>
+      <c r="E4" s="998"/>
       <c r="J4" t="s">
         <v>6</v>
       </c>
@@ -39192,7 +39211,7 @@
       <c r="B5" s="79">
         <v>0</v>
       </c>
-      <c r="C5" s="900" t="s">
+      <c r="C5" s="1001" t="s">
         <v>9</v>
       </c>
       <c r="D5" t="s">
@@ -39219,7 +39238,7 @@
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6" s="900"/>
+      <c r="C6" s="1001"/>
       <c r="D6" t="s">
         <v>14</v>
       </c>
@@ -39242,7 +39261,7 @@
       <c r="B7">
         <v>0</v>
       </c>
-      <c r="C7" s="900"/>
+      <c r="C7" s="1001"/>
       <c r="D7" t="s">
         <v>18</v>
       </c>
@@ -39262,7 +39281,7 @@
       <c r="B8">
         <v>0</v>
       </c>
-      <c r="C8" s="900"/>
+      <c r="C8" s="1001"/>
       <c r="D8" t="s">
         <v>22</v>
       </c>
@@ -39289,7 +39308,7 @@
         <f>7-7</f>
         <v>0</v>
       </c>
-      <c r="C9" s="900"/>
+      <c r="C9" s="1001"/>
       <c r="I9" t="s">
         <v>26</v>
       </c>
@@ -39306,7 +39325,7 @@
         <f>7-7</f>
         <v>0</v>
       </c>
-      <c r="C10" s="900"/>
+      <c r="C10" s="1001"/>
       <c r="I10" s="30" t="s">
         <v>29</v>
       </c>
@@ -39378,7 +39397,7 @@
       <c r="A13" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="901" t="s">
+      <c r="C13" s="1002" t="s">
         <v>38</v>
       </c>
       <c r="I13" t="s">
@@ -39392,11 +39411,11 @@
       <c r="B14">
         <v>0</v>
       </c>
-      <c r="C14" s="901"/>
-      <c r="D14" s="896" t="s">
+      <c r="C14" s="1002"/>
+      <c r="D14" s="997" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="896"/>
+      <c r="E14" s="997"/>
       <c r="I14" s="30" t="s">
         <v>42</v>
       </c>
@@ -39412,7 +39431,7 @@
       <c r="B15">
         <v>0</v>
       </c>
-      <c r="C15" s="901"/>
+      <c r="C15" s="1002"/>
       <c r="D15" s="46" t="s">
         <v>44</v>
       </c>
@@ -39429,7 +39448,7 @@
       <c r="B16" s="111">
         <v>0</v>
       </c>
-      <c r="C16" s="901"/>
+      <c r="C16" s="1002"/>
       <c r="D16" t="s">
         <v>46</v>
       </c>
@@ -39448,7 +39467,7 @@
       <c r="B17" s="30">
         <v>0</v>
       </c>
-      <c r="C17" s="901"/>
+      <c r="C17" s="1002"/>
       <c r="D17" t="s">
         <v>49</v>
       </c>
@@ -39466,7 +39485,7 @@
       <c r="B18">
         <v>0</v>
       </c>
-      <c r="C18" s="901"/>
+      <c r="C18" s="1002"/>
       <c r="D18" t="s">
         <v>52</v>
       </c>
@@ -39485,7 +39504,7 @@
       <c r="B19">
         <v>0</v>
       </c>
-      <c r="C19" s="901"/>
+      <c r="C19" s="1002"/>
       <c r="D19" t="s">
         <v>55</v>
       </c>
@@ -39497,7 +39516,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C20" s="901"/>
+      <c r="C20" s="1002"/>
       <c r="D20" s="613" t="s">
         <v>56</v>
       </c>
@@ -39747,10 +39766,10 @@
       <c r="A37" s="30"/>
     </row>
     <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="898" t="s">
+      <c r="A38" s="999" t="s">
         <v>89</v>
       </c>
-      <c r="B38" s="899"/>
+      <c r="B38" s="1000"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="603">
@@ -39846,18 +39865,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C5:C10"/>
+    <mergeCell ref="C13:C20"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="I2:L2"/>
     <mergeCell ref="I3:L3"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C5:C10"/>
-    <mergeCell ref="C13:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -39882,20 +39901,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1020" t="s">
+      <c r="A1" s="1121" t="s">
         <v>730</v>
       </c>
-      <c r="B1" s="1020"/>
-      <c r="C1" s="1020"/>
-      <c r="D1" s="1020"/>
+      <c r="B1" s="1121"/>
+      <c r="C1" s="1121"/>
+      <c r="D1" s="1121"/>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="1021" t="s">
+      <c r="A2" s="1122" t="s">
         <v>731</v>
       </c>
-      <c r="B2" s="1022"/>
-      <c r="C2" s="1022"/>
-      <c r="D2" s="1023"/>
+      <c r="B2" s="1123"/>
+      <c r="C2" s="1123"/>
+      <c r="D2" s="1124"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
@@ -39993,11 +40012,11 @@
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="1024" t="s">
+      <c r="A8" s="1125" t="s">
         <v>745</v>
       </c>
-      <c r="B8" s="1024"/>
-      <c r="C8" s="1024"/>
+      <c r="B8" s="1125"/>
+      <c r="C8" s="1125"/>
     </row>
     <row r="9" spans="1:8" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="381" t="s">
@@ -41208,20 +41227,20 @@
       <c r="M6" s="400"/>
     </row>
     <row r="8" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B8" s="1038" t="s">
+      <c r="B8" s="1139" t="s">
         <v>866</v>
       </c>
-      <c r="C8" s="1038"/>
-      <c r="D8" s="1038"/>
-      <c r="E8" s="1038"/>
-      <c r="F8" s="1038"/>
-      <c r="G8" s="1038"/>
-      <c r="H8" s="1038"/>
-      <c r="I8" s="1038"/>
-      <c r="J8" s="1038"/>
-      <c r="K8" s="1038"/>
-      <c r="L8" s="1038"/>
-      <c r="M8" s="1038"/>
+      <c r="C8" s="1139"/>
+      <c r="D8" s="1139"/>
+      <c r="E8" s="1139"/>
+      <c r="F8" s="1139"/>
+      <c r="G8" s="1139"/>
+      <c r="H8" s="1139"/>
+      <c r="I8" s="1139"/>
+      <c r="J8" s="1139"/>
+      <c r="K8" s="1139"/>
+      <c r="L8" s="1139"/>
+      <c r="M8" s="1139"/>
       <c r="N8" s="401"/>
       <c r="O8" s="401"/>
       <c r="P8" s="401"/>
@@ -41245,20 +41264,20 @@
       <c r="AH8" s="401"/>
     </row>
     <row r="9" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="1038" t="s">
+      <c r="B9" s="1139" t="s">
         <v>867</v>
       </c>
-      <c r="C9" s="1038"/>
-      <c r="D9" s="1038"/>
-      <c r="E9" s="1038"/>
-      <c r="F9" s="1038"/>
-      <c r="G9" s="1038"/>
-      <c r="H9" s="1038"/>
-      <c r="I9" s="1038"/>
-      <c r="J9" s="1038"/>
-      <c r="K9" s="1038"/>
-      <c r="L9" s="1038"/>
-      <c r="M9" s="1038"/>
+      <c r="C9" s="1139"/>
+      <c r="D9" s="1139"/>
+      <c r="E9" s="1139"/>
+      <c r="F9" s="1139"/>
+      <c r="G9" s="1139"/>
+      <c r="H9" s="1139"/>
+      <c r="I9" s="1139"/>
+      <c r="J9" s="1139"/>
+      <c r="K9" s="1139"/>
+      <c r="L9" s="1139"/>
+      <c r="M9" s="1139"/>
       <c r="N9" s="401"/>
       <c r="O9" s="401"/>
       <c r="P9" s="401"/>
@@ -41282,23 +41301,23 @@
       <c r="AH9" s="401"/>
     </row>
     <row r="10" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="1038" t="s">
+      <c r="C10" s="1139" t="s">
         <v>868</v>
       </c>
-      <c r="D10" s="1038"/>
-      <c r="E10" s="1038"/>
+      <c r="D10" s="1139"/>
+      <c r="E10" s="1139"/>
       <c r="F10" s="402"/>
-      <c r="G10" s="1038" t="s">
+      <c r="G10" s="1139" t="s">
         <v>869</v>
       </c>
-      <c r="H10" s="1038"/>
-      <c r="I10" s="1038"/>
+      <c r="H10" s="1139"/>
+      <c r="I10" s="1139"/>
       <c r="J10" s="401"/>
-      <c r="K10" s="1039" t="s">
+      <c r="K10" s="1140" t="s">
         <v>870</v>
       </c>
-      <c r="L10" s="1040"/>
-      <c r="M10" s="1041"/>
+      <c r="L10" s="1141"/>
+      <c r="M10" s="1142"/>
       <c r="N10" s="401"/>
       <c r="O10" s="401"/>
       <c r="P10" s="401"/>
@@ -43001,23 +43020,23 @@
       <c r="B46" s="506" t="s">
         <v>912</v>
       </c>
-      <c r="C46" s="1042" t="s">
+      <c r="C46" s="1143" t="s">
         <v>884</v>
       </c>
-      <c r="D46" s="1043"/>
+      <c r="D46" s="1144"/>
       <c r="E46" s="449"/>
       <c r="F46" s="434"/>
       <c r="G46" s="401"/>
-      <c r="H46" s="1044" t="s">
+      <c r="H46" s="1145" t="s">
         <v>884</v>
       </c>
-      <c r="I46" s="1045"/>
+      <c r="I46" s="1146"/>
       <c r="J46" s="401"/>
       <c r="K46" s="401"/>
-      <c r="L46" s="1044" t="s">
+      <c r="L46" s="1145" t="s">
         <v>884</v>
       </c>
-      <c r="M46" s="1045"/>
+      <c r="M46" s="1146"/>
       <c r="N46" s="401"/>
       <c r="O46" s="401"/>
       <c r="P46" s="401"/>
@@ -43457,7 +43476,7 @@
         <v>2760000</v>
       </c>
       <c r="D55" s="448"/>
-      <c r="E55" s="1025" t="s">
+      <c r="E55" s="1126" t="s">
         <v>927</v>
       </c>
       <c r="F55" s="434"/>
@@ -43508,7 +43527,7 @@
         <f>E53*D15</f>
         <v>750000</v>
       </c>
-      <c r="E56" s="1025"/>
+      <c r="E56" s="1126"/>
       <c r="F56" s="434"/>
       <c r="G56" s="401" t="s">
         <v>929</v>
@@ -43555,7 +43574,7 @@
         <f>C55-D56</f>
         <v>2010000</v>
       </c>
-      <c r="E57" s="1025"/>
+      <c r="E57" s="1126"/>
       <c r="F57" s="434"/>
       <c r="G57" s="401" t="s">
         <v>931</v>
@@ -44077,11 +44096,11 @@
       </c>
       <c r="I70" s="401"/>
       <c r="J70" s="401"/>
-      <c r="K70" s="1026" t="s">
+      <c r="K70" s="1127" t="s">
         <v>772</v>
       </c>
-      <c r="L70" s="1027"/>
-      <c r="M70" s="1028"/>
+      <c r="L70" s="1128"/>
+      <c r="M70" s="1129"/>
       <c r="N70" s="463">
         <f>M69</f>
         <v>475000</v>
@@ -44948,14 +44967,14 @@
       <c r="AH91" s="401"/>
     </row>
     <row r="92" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B92" s="1029" t="s">
+      <c r="B92" s="1130" t="s">
         <v>961</v>
       </c>
       <c r="C92" s="446"/>
-      <c r="D92" s="1032" t="s">
+      <c r="D92" s="1133" t="s">
         <v>962</v>
       </c>
-      <c r="E92" s="1033"/>
+      <c r="E92" s="1134"/>
       <c r="F92" s="434"/>
       <c r="G92" s="401"/>
       <c r="H92" s="401"/>
@@ -44987,10 +45006,10 @@
       <c r="AH92" s="401"/>
     </row>
     <row r="93" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B93" s="1030"/>
+      <c r="B93" s="1131"/>
       <c r="C93" s="446"/>
-      <c r="D93" s="1034"/>
-      <c r="E93" s="1035"/>
+      <c r="D93" s="1135"/>
+      <c r="E93" s="1136"/>
       <c r="F93" s="434"/>
       <c r="G93" s="401"/>
       <c r="H93" s="401"/>
@@ -45022,10 +45041,10 @@
       <c r="AH93" s="401"/>
     </row>
     <row r="94" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B94" s="1030"/>
+      <c r="B94" s="1131"/>
       <c r="C94" s="446"/>
-      <c r="D94" s="1034"/>
-      <c r="E94" s="1035"/>
+      <c r="D94" s="1135"/>
+      <c r="E94" s="1136"/>
       <c r="F94" s="434"/>
       <c r="G94" s="401"/>
       <c r="H94" s="401"/>
@@ -45057,10 +45076,10 @@
       <c r="AH94" s="401"/>
     </row>
     <row r="95" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B95" s="1030"/>
+      <c r="B95" s="1131"/>
       <c r="C95" s="446"/>
-      <c r="D95" s="1034"/>
-      <c r="E95" s="1035"/>
+      <c r="D95" s="1135"/>
+      <c r="E95" s="1136"/>
       <c r="F95" s="434"/>
       <c r="G95" s="401"/>
       <c r="H95" s="401"/>
@@ -45092,10 +45111,10 @@
       <c r="AH95" s="401"/>
     </row>
     <row r="96" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B96" s="1031"/>
+      <c r="B96" s="1132"/>
       <c r="C96" s="446"/>
-      <c r="D96" s="1036"/>
-      <c r="E96" s="1037"/>
+      <c r="D96" s="1137"/>
+      <c r="E96" s="1138"/>
       <c r="F96" s="434"/>
       <c r="G96" s="401"/>
       <c r="H96" s="401"/>
@@ -47524,20 +47543,20 @@
       <c r="M6" s="400"/>
     </row>
     <row r="8" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B8" s="1038" t="s">
+      <c r="B8" s="1139" t="s">
         <v>866</v>
       </c>
-      <c r="C8" s="1038"/>
-      <c r="D8" s="1038"/>
-      <c r="E8" s="1038"/>
-      <c r="F8" s="1038"/>
-      <c r="G8" s="1038"/>
-      <c r="H8" s="1038"/>
-      <c r="I8" s="1038"/>
-      <c r="J8" s="1038"/>
-      <c r="K8" s="1038"/>
-      <c r="L8" s="1038"/>
-      <c r="M8" s="1038"/>
+      <c r="C8" s="1139"/>
+      <c r="D8" s="1139"/>
+      <c r="E8" s="1139"/>
+      <c r="F8" s="1139"/>
+      <c r="G8" s="1139"/>
+      <c r="H8" s="1139"/>
+      <c r="I8" s="1139"/>
+      <c r="J8" s="1139"/>
+      <c r="K8" s="1139"/>
+      <c r="L8" s="1139"/>
+      <c r="M8" s="1139"/>
       <c r="N8" s="401"/>
       <c r="O8" s="401"/>
       <c r="P8" s="401"/>
@@ -47561,20 +47580,20 @@
       <c r="AH8" s="401"/>
     </row>
     <row r="9" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="1038" t="s">
+      <c r="B9" s="1139" t="s">
         <v>867</v>
       </c>
-      <c r="C9" s="1038"/>
-      <c r="D9" s="1038"/>
-      <c r="E9" s="1038"/>
-      <c r="F9" s="1038"/>
-      <c r="G9" s="1038"/>
-      <c r="H9" s="1038"/>
-      <c r="I9" s="1038"/>
-      <c r="J9" s="1038"/>
-      <c r="K9" s="1038"/>
-      <c r="L9" s="1038"/>
-      <c r="M9" s="1038"/>
+      <c r="C9" s="1139"/>
+      <c r="D9" s="1139"/>
+      <c r="E9" s="1139"/>
+      <c r="F9" s="1139"/>
+      <c r="G9" s="1139"/>
+      <c r="H9" s="1139"/>
+      <c r="I9" s="1139"/>
+      <c r="J9" s="1139"/>
+      <c r="K9" s="1139"/>
+      <c r="L9" s="1139"/>
+      <c r="M9" s="1139"/>
       <c r="N9" s="401"/>
       <c r="O9" s="401"/>
       <c r="P9" s="401"/>
@@ -47598,23 +47617,23 @@
       <c r="AH9" s="401"/>
     </row>
     <row r="10" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="1038" t="s">
+      <c r="C10" s="1139" t="s">
         <v>869</v>
       </c>
-      <c r="D10" s="1038"/>
-      <c r="E10" s="1038"/>
+      <c r="D10" s="1139"/>
+      <c r="E10" s="1139"/>
       <c r="F10" s="402"/>
-      <c r="G10" s="1038" t="s">
+      <c r="G10" s="1139" t="s">
         <v>1123</v>
       </c>
-      <c r="H10" s="1038"/>
-      <c r="I10" s="1038"/>
+      <c r="H10" s="1139"/>
+      <c r="I10" s="1139"/>
       <c r="J10" s="401"/>
-      <c r="K10" s="1039" t="s">
+      <c r="K10" s="1140" t="s">
         <v>870</v>
       </c>
-      <c r="L10" s="1040"/>
-      <c r="M10" s="1041"/>
+      <c r="L10" s="1141"/>
+      <c r="M10" s="1142"/>
       <c r="N10" s="401"/>
       <c r="O10" s="401"/>
       <c r="P10" s="401"/>
@@ -49321,23 +49340,23 @@
       <c r="B46" s="620" t="s">
         <v>912</v>
       </c>
-      <c r="C46" s="1044" t="s">
+      <c r="C46" s="1145" t="s">
         <v>884</v>
       </c>
-      <c r="D46" s="1045"/>
+      <c r="D46" s="1146"/>
       <c r="E46" s="449"/>
       <c r="F46" s="434"/>
       <c r="G46" s="401"/>
-      <c r="H46" s="1044" t="s">
+      <c r="H46" s="1145" t="s">
         <v>884</v>
       </c>
-      <c r="I46" s="1045"/>
+      <c r="I46" s="1146"/>
       <c r="J46" s="401"/>
       <c r="K46" s="401"/>
-      <c r="L46" s="1044" t="s">
+      <c r="L46" s="1145" t="s">
         <v>884</v>
       </c>
-      <c r="M46" s="1045"/>
+      <c r="M46" s="1146"/>
       <c r="N46" s="401"/>
       <c r="O46" s="401"/>
       <c r="P46" s="401"/>
@@ -49777,7 +49796,7 @@
         <v>2760000</v>
       </c>
       <c r="D55" s="448"/>
-      <c r="E55" s="1046" t="s">
+      <c r="E55" s="1147" t="s">
         <v>927</v>
       </c>
       <c r="F55" s="434"/>
@@ -49828,7 +49847,7 @@
         <f>E53*D15</f>
         <v>750000</v>
       </c>
-      <c r="E56" s="1046"/>
+      <c r="E56" s="1147"/>
       <c r="F56" s="434"/>
       <c r="G56" s="401" t="s">
         <v>929</v>
@@ -49875,7 +49894,7 @@
         <f>C55-D56</f>
         <v>2010000</v>
       </c>
-      <c r="E57" s="1046"/>
+      <c r="E57" s="1147"/>
       <c r="F57" s="434"/>
       <c r="G57" s="401" t="s">
         <v>931</v>
@@ -50397,11 +50416,11 @@
       </c>
       <c r="I70" s="401"/>
       <c r="J70" s="401"/>
-      <c r="K70" s="1026" t="s">
+      <c r="K70" s="1127" t="s">
         <v>772</v>
       </c>
-      <c r="L70" s="1027"/>
-      <c r="M70" s="1028"/>
+      <c r="L70" s="1128"/>
+      <c r="M70" s="1129"/>
       <c r="N70" s="463">
         <f>M69</f>
         <v>475000</v>
@@ -51268,14 +51287,14 @@
       <c r="AH91" s="401"/>
     </row>
     <row r="92" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B92" s="1029" t="s">
+      <c r="B92" s="1130" t="s">
         <v>961</v>
       </c>
       <c r="C92" s="446"/>
-      <c r="D92" s="1032" t="s">
+      <c r="D92" s="1133" t="s">
         <v>962</v>
       </c>
-      <c r="E92" s="1033"/>
+      <c r="E92" s="1134"/>
       <c r="F92" s="434"/>
       <c r="G92" s="401"/>
       <c r="H92" s="401"/>
@@ -51307,10 +51326,10 @@
       <c r="AH92" s="401"/>
     </row>
     <row r="93" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B93" s="1030"/>
+      <c r="B93" s="1131"/>
       <c r="C93" s="446"/>
-      <c r="D93" s="1034"/>
-      <c r="E93" s="1035"/>
+      <c r="D93" s="1135"/>
+      <c r="E93" s="1136"/>
       <c r="F93" s="434"/>
       <c r="G93" s="401"/>
       <c r="H93" s="401"/>
@@ -51342,10 +51361,10 @@
       <c r="AH93" s="401"/>
     </row>
     <row r="94" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B94" s="1030"/>
+      <c r="B94" s="1131"/>
       <c r="C94" s="446"/>
-      <c r="D94" s="1034"/>
-      <c r="E94" s="1035"/>
+      <c r="D94" s="1135"/>
+      <c r="E94" s="1136"/>
       <c r="F94" s="434"/>
       <c r="G94" s="401"/>
       <c r="H94" s="401"/>
@@ -51377,10 +51396,10 @@
       <c r="AH94" s="401"/>
     </row>
     <row r="95" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B95" s="1030"/>
+      <c r="B95" s="1131"/>
       <c r="C95" s="446"/>
-      <c r="D95" s="1034"/>
-      <c r="E95" s="1035"/>
+      <c r="D95" s="1135"/>
+      <c r="E95" s="1136"/>
       <c r="F95" s="434"/>
       <c r="G95" s="401"/>
       <c r="H95" s="401"/>
@@ -51412,10 +51431,10 @@
       <c r="AH95" s="401"/>
     </row>
     <row r="96" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B96" s="1031"/>
+      <c r="B96" s="1132"/>
       <c r="C96" s="446"/>
-      <c r="D96" s="1036"/>
-      <c r="E96" s="1037"/>
+      <c r="D96" s="1137"/>
+      <c r="E96" s="1138"/>
       <c r="F96" s="434"/>
       <c r="G96" s="401"/>
       <c r="H96" s="401"/>
@@ -54400,13 +54419,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="1047" t="s">
+      <c r="A2" s="1148" t="s">
         <v>369</v>
       </c>
-      <c r="B2" s="1047"/>
-      <c r="C2" s="1047"/>
-      <c r="D2" s="1047"/>
-      <c r="E2" s="1047"/>
+      <c r="B2" s="1148"/>
+      <c r="C2" s="1148"/>
+      <c r="D2" s="1148"/>
+      <c r="E2" s="1148"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" t="s">
@@ -54522,7 +54541,7 @@
       <c r="D18" t="s">
         <v>1015</v>
       </c>
-      <c r="E18" s="1048" t="s">
+      <c r="E18" s="1149" t="s">
         <v>1016</v>
       </c>
       <c r="F18" s="696"/>
@@ -54545,7 +54564,7 @@
       <c r="D19" t="s">
         <v>1017</v>
       </c>
-      <c r="E19" s="1048"/>
+      <c r="E19" s="1149"/>
       <c r="F19" s="696"/>
       <c r="G19" s="696"/>
       <c r="H19" s="46" t="s">
@@ -54685,12 +54704,12 @@
       <c r="A30" s="44"/>
       <c r="B30" s="44"/>
       <c r="C30" s="44"/>
-      <c r="E30" s="1047" t="s">
+      <c r="E30" s="1148" t="s">
         <v>1027</v>
       </c>
-      <c r="F30" s="1047"/>
-      <c r="G30" s="1047"/>
-      <c r="H30" s="1047"/>
+      <c r="F30" s="1148"/>
+      <c r="G30" s="1148"/>
+      <c r="H30" s="1148"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="601"/>
@@ -54849,19 +54868,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="896" t="s">
+      <c r="A1" s="997" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="896"/>
-      <c r="C1" s="896"/>
-      <c r="D1" s="896"/>
-      <c r="E1" s="896"/>
-      <c r="F1" s="896"/>
-      <c r="I1" s="896" t="s">
+      <c r="B1" s="997"/>
+      <c r="C1" s="997"/>
+      <c r="D1" s="997"/>
+      <c r="E1" s="997"/>
+      <c r="F1" s="997"/>
+      <c r="I1" s="997" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="896"/>
-      <c r="K1" s="896"/>
+      <c r="J1" s="997"/>
+      <c r="K1" s="997"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="216" t="s">
@@ -55203,10 +55222,10 @@
         <f>B26</f>
         <v>40</v>
       </c>
-      <c r="I27" s="1049" t="s">
+      <c r="I27" s="1150" t="s">
         <v>1056</v>
       </c>
-      <c r="J27" s="1049"/>
+      <c r="J27" s="1150"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I28" s="111" t="s">
@@ -55514,100 +55533,100 @@
       <c r="C9" s="768" t="s">
         <v>124</v>
       </c>
-      <c r="M9" s="914" t="s">
+      <c r="M9" s="1003" t="s">
         <v>125</v>
       </c>
-      <c r="N9" s="926"/>
-      <c r="O9" s="926"/>
-      <c r="P9" s="915"/>
-      <c r="R9" s="914" t="s">
+      <c r="N9" s="1004"/>
+      <c r="O9" s="1004"/>
+      <c r="P9" s="1005"/>
+      <c r="R9" s="1003" t="s">
         <v>126</v>
       </c>
-      <c r="S9" s="926"/>
-      <c r="T9" s="926"/>
-      <c r="U9" s="915"/>
-      <c r="W9" s="914" t="s">
+      <c r="S9" s="1004"/>
+      <c r="T9" s="1004"/>
+      <c r="U9" s="1005"/>
+      <c r="W9" s="1003" t="s">
         <v>127</v>
       </c>
-      <c r="X9" s="926"/>
-      <c r="Y9" s="926"/>
-      <c r="Z9" s="926"/>
-      <c r="AA9" s="926"/>
-      <c r="AB9" s="926"/>
-      <c r="AC9" s="915"/>
-      <c r="AE9" s="914" t="s">
+      <c r="X9" s="1004"/>
+      <c r="Y9" s="1004"/>
+      <c r="Z9" s="1004"/>
+      <c r="AA9" s="1004"/>
+      <c r="AB9" s="1004"/>
+      <c r="AC9" s="1005"/>
+      <c r="AE9" s="1003" t="s">
         <v>128</v>
       </c>
-      <c r="AF9" s="926"/>
-      <c r="AG9" s="926"/>
-      <c r="AH9" s="926"/>
-      <c r="AI9" s="926"/>
-      <c r="AJ9" s="926"/>
-      <c r="AK9" s="915"/>
+      <c r="AF9" s="1004"/>
+      <c r="AG9" s="1004"/>
+      <c r="AH9" s="1004"/>
+      <c r="AI9" s="1004"/>
+      <c r="AJ9" s="1004"/>
+      <c r="AK9" s="1005"/>
     </row>
     <row r="10" spans="2:38" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="914" t="s">
+      <c r="B10" s="1003" t="s">
         <v>129</v>
       </c>
-      <c r="C10" s="915"/>
+      <c r="C10" s="1005"/>
       <c r="D10" s="769"/>
-      <c r="E10" s="914" t="s">
+      <c r="E10" s="1003" t="s">
         <v>130</v>
       </c>
-      <c r="F10" s="926"/>
-      <c r="G10" s="926"/>
-      <c r="H10" s="915"/>
+      <c r="F10" s="1004"/>
+      <c r="G10" s="1004"/>
+      <c r="H10" s="1005"/>
       <c r="I10" s="769"/>
-      <c r="J10" s="914" t="s">
+      <c r="J10" s="1003" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="915"/>
-      <c r="M10" s="914" t="s">
+      <c r="K10" s="1005"/>
+      <c r="M10" s="1003" t="s">
         <v>131</v>
       </c>
-      <c r="N10" s="915"/>
-      <c r="O10" s="914" t="s">
+      <c r="N10" s="1005"/>
+      <c r="O10" s="1003" t="s">
         <v>132</v>
       </c>
-      <c r="P10" s="915"/>
+      <c r="P10" s="1005"/>
       <c r="Q10" s="769"/>
-      <c r="R10" s="914" t="s">
+      <c r="R10" s="1003" t="s">
         <v>133</v>
       </c>
-      <c r="S10" s="915"/>
-      <c r="T10" s="914" t="s">
+      <c r="S10" s="1005"/>
+      <c r="T10" s="1003" t="s">
         <v>134</v>
       </c>
-      <c r="U10" s="915"/>
+      <c r="U10" s="1005"/>
       <c r="V10" s="769"/>
-      <c r="W10" s="914" t="s">
+      <c r="W10" s="1003" t="s">
         <v>135</v>
       </c>
-      <c r="X10" s="915"/>
-      <c r="Y10" s="914" t="s">
+      <c r="X10" s="1005"/>
+      <c r="Y10" s="1003" t="s">
         <v>136</v>
       </c>
-      <c r="Z10" s="915"/>
-      <c r="AA10" s="914" t="s">
+      <c r="Z10" s="1005"/>
+      <c r="AA10" s="1003" t="s">
         <v>137</v>
       </c>
-      <c r="AB10" s="915"/>
+      <c r="AB10" s="1005"/>
       <c r="AC10" s="770" t="s">
         <v>138</v>
       </c>
       <c r="AD10" s="769"/>
-      <c r="AE10" s="914" t="s">
+      <c r="AE10" s="1003" t="s">
         <v>135</v>
       </c>
-      <c r="AF10" s="915"/>
-      <c r="AG10" s="914" t="s">
+      <c r="AF10" s="1005"/>
+      <c r="AG10" s="1003" t="s">
         <v>136</v>
       </c>
-      <c r="AH10" s="915"/>
-      <c r="AI10" s="914" t="s">
+      <c r="AH10" s="1005"/>
+      <c r="AI10" s="1003" t="s">
         <v>137</v>
       </c>
-      <c r="AJ10" s="915"/>
+      <c r="AJ10" s="1005"/>
       <c r="AK10" s="770" t="s">
         <v>138</v>
       </c>
@@ -59544,33 +59563,33 @@
       </c>
       <c r="O68" s="787"/>
       <c r="P68" s="825"/>
-      <c r="R68" s="916" t="s">
+      <c r="R68" s="1018" t="s">
         <v>221</v>
       </c>
-      <c r="S68" s="917"/>
+      <c r="S68" s="1019"/>
       <c r="T68" s="804"/>
       <c r="U68" s="803">
         <v>0</v>
       </c>
-      <c r="W68" s="918" t="s">
+      <c r="W68" s="1020" t="s">
         <v>221</v>
       </c>
-      <c r="X68" s="919"/>
-      <c r="Y68" s="919"/>
-      <c r="Z68" s="919"/>
-      <c r="AA68" s="919"/>
-      <c r="AB68" s="920"/>
+      <c r="X68" s="1021"/>
+      <c r="Y68" s="1021"/>
+      <c r="Z68" s="1021"/>
+      <c r="AA68" s="1021"/>
+      <c r="AB68" s="1022"/>
       <c r="AC68" s="834">
         <v>0</v>
       </c>
-      <c r="AE68" s="918" t="s">
+      <c r="AE68" s="1020" t="s">
         <v>221</v>
       </c>
-      <c r="AF68" s="919"/>
-      <c r="AG68" s="919"/>
-      <c r="AH68" s="919"/>
-      <c r="AI68" s="919"/>
-      <c r="AJ68" s="920"/>
+      <c r="AF68" s="1021"/>
+      <c r="AG68" s="1021"/>
+      <c r="AH68" s="1021"/>
+      <c r="AI68" s="1021"/>
+      <c r="AJ68" s="1022"/>
       <c r="AK68" s="834">
         <v>0</v>
       </c>
@@ -59613,35 +59632,35 @@
         <f>SUM(P59:P68)</f>
         <v>254</v>
       </c>
-      <c r="R69" s="921" t="s">
+      <c r="R69" s="1023" t="s">
         <v>222</v>
       </c>
-      <c r="S69" s="922"/>
+      <c r="S69" s="1024"/>
       <c r="T69" s="820"/>
       <c r="U69" s="797">
         <f>U68+U67</f>
         <v>83</v>
       </c>
-      <c r="W69" s="923" t="s">
+      <c r="W69" s="1025" t="s">
         <v>222</v>
       </c>
-      <c r="X69" s="924"/>
-      <c r="Y69" s="924"/>
-      <c r="Z69" s="924"/>
-      <c r="AA69" s="924"/>
-      <c r="AB69" s="925"/>
+      <c r="X69" s="1026"/>
+      <c r="Y69" s="1026"/>
+      <c r="Z69" s="1026"/>
+      <c r="AA69" s="1026"/>
+      <c r="AB69" s="1027"/>
       <c r="AC69" s="801">
         <f>AC67</f>
         <v>83</v>
       </c>
-      <c r="AE69" s="923" t="s">
+      <c r="AE69" s="1025" t="s">
         <v>222</v>
       </c>
-      <c r="AF69" s="924"/>
-      <c r="AG69" s="924"/>
-      <c r="AH69" s="924"/>
-      <c r="AI69" s="924"/>
-      <c r="AJ69" s="925"/>
+      <c r="AF69" s="1026"/>
+      <c r="AG69" s="1026"/>
+      <c r="AH69" s="1026"/>
+      <c r="AI69" s="1026"/>
+      <c r="AJ69" s="1027"/>
       <c r="AK69" s="801">
         <f>AK67</f>
         <v>83</v>
@@ -59652,55 +59671,65 @@
       <c r="C71" s="802" t="s">
         <v>223</v>
       </c>
-      <c r="D71" s="902" t="s">
+      <c r="D71" s="1006" t="s">
         <v>1131</v>
       </c>
-      <c r="E71" s="903"/>
+      <c r="E71" s="1007"/>
     </row>
     <row r="72" spans="2:37" x14ac:dyDescent="0.3">
       <c r="C72" s="779" t="s">
         <v>224</v>
       </c>
-      <c r="D72" s="904"/>
-      <c r="E72" s="905"/>
+      <c r="D72" s="1008"/>
+      <c r="E72" s="1009"/>
     </row>
     <row r="73" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C73" s="798" t="s">
         <v>225</v>
       </c>
-      <c r="D73" s="906"/>
-      <c r="E73" s="907"/>
+      <c r="D73" s="1010"/>
+      <c r="E73" s="1011"/>
     </row>
     <row r="74" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C74" s="918"/>
-      <c r="D74" s="919"/>
-      <c r="E74" s="920"/>
+      <c r="C74" s="1020"/>
+      <c r="D74" s="1021"/>
+      <c r="E74" s="1022"/>
     </row>
     <row r="75" spans="2:37" x14ac:dyDescent="0.3">
       <c r="C75" s="802" t="s">
         <v>226</v>
       </c>
-      <c r="D75" s="908" t="s">
+      <c r="D75" s="1012" t="s">
         <v>1132</v>
       </c>
-      <c r="E75" s="909"/>
+      <c r="E75" s="1013"/>
     </row>
     <row r="76" spans="2:37" x14ac:dyDescent="0.3">
       <c r="C76" s="779" t="s">
         <v>227</v>
       </c>
-      <c r="D76" s="910"/>
-      <c r="E76" s="911"/>
+      <c r="D76" s="1014"/>
+      <c r="E76" s="1015"/>
     </row>
     <row r="77" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C77" s="798" t="s">
         <v>228</v>
       </c>
-      <c r="D77" s="912"/>
-      <c r="E77" s="913"/>
+      <c r="D77" s="1016"/>
+      <c r="E77" s="1017"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="D71:E73"/>
+    <mergeCell ref="D75:E77"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="R68:S68"/>
+    <mergeCell ref="W68:AB68"/>
+    <mergeCell ref="AE68:AJ68"/>
+    <mergeCell ref="R69:S69"/>
+    <mergeCell ref="W69:AB69"/>
+    <mergeCell ref="AE69:AJ69"/>
+    <mergeCell ref="C74:E74"/>
     <mergeCell ref="M9:P9"/>
     <mergeCell ref="R9:U9"/>
     <mergeCell ref="W9:AC9"/>
@@ -59717,16 +59746,6 @@
     <mergeCell ref="Y10:Z10"/>
     <mergeCell ref="AA10:AB10"/>
     <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="D71:E73"/>
-    <mergeCell ref="D75:E77"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="R68:S68"/>
-    <mergeCell ref="W68:AB68"/>
-    <mergeCell ref="AE68:AJ68"/>
-    <mergeCell ref="R69:S69"/>
-    <mergeCell ref="W69:AB69"/>
-    <mergeCell ref="AE69:AJ69"/>
-    <mergeCell ref="C74:E74"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -59743,916 +59762,916 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="1080" customWidth="1"/>
-    <col min="2" max="2" width="29" style="1080" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="1080" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1141" customWidth="1"/>
-    <col min="5" max="5" width="17.5546875" style="1080" customWidth="1"/>
-    <col min="6" max="6" width="21.5546875" style="1080" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" style="1080" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" style="1080" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" style="1080" customWidth="1"/>
-    <col min="10" max="12" width="11.44140625" style="1079"/>
-    <col min="13" max="15" width="11.44140625" style="1080"/>
-    <col min="16" max="16" width="14.88671875" style="1080" customWidth="1"/>
-    <col min="17" max="16384" width="11.44140625" style="1080"/>
+    <col min="1" max="1" width="11.33203125" style="897" customWidth="1"/>
+    <col min="2" max="2" width="29" style="897" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="897" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="941" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" style="897" customWidth="1"/>
+    <col min="6" max="6" width="21.5546875" style="897" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" style="897" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="897" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="897" customWidth="1"/>
+    <col min="10" max="12" width="11.44140625" style="896"/>
+    <col min="13" max="15" width="11.44140625" style="897"/>
+    <col min="16" max="16" width="14.88671875" style="897" customWidth="1"/>
+    <col min="17" max="16384" width="11.44140625" style="897"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="1076" t="s">
+      <c r="A1" s="1156" t="s">
         <v>1060</v>
       </c>
-      <c r="B1" s="1077"/>
-      <c r="C1" s="1077"/>
-      <c r="D1" s="1077"/>
-      <c r="E1" s="1077"/>
-      <c r="F1" s="1077"/>
-      <c r="G1" s="1077"/>
-      <c r="H1" s="1077"/>
-      <c r="I1" s="1078"/>
+      <c r="B1" s="1157"/>
+      <c r="C1" s="1157"/>
+      <c r="D1" s="1157"/>
+      <c r="E1" s="1157"/>
+      <c r="F1" s="1157"/>
+      <c r="G1" s="1157"/>
+      <c r="H1" s="1157"/>
+      <c r="I1" s="1158"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="1081" t="s">
+      <c r="A2" s="1151" t="s">
         <v>269</v>
       </c>
-      <c r="B2" s="1082"/>
-      <c r="C2" s="1082"/>
-      <c r="D2" s="1082"/>
-      <c r="E2" s="1082"/>
-      <c r="F2" s="1082"/>
-      <c r="G2" s="1082"/>
-      <c r="H2" s="1082"/>
-      <c r="I2" s="1083"/>
-      <c r="J2" s="1084">
+      <c r="B2" s="1152"/>
+      <c r="C2" s="1152"/>
+      <c r="D2" s="1152"/>
+      <c r="E2" s="1152"/>
+      <c r="F2" s="1152"/>
+      <c r="G2" s="1152"/>
+      <c r="H2" s="1152"/>
+      <c r="I2" s="1153"/>
+      <c r="J2" s="898">
         <f>C6</f>
         <v>296616</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="1081" t="s">
+      <c r="A3" s="1151" t="s">
         <v>231</v>
       </c>
-      <c r="B3" s="1082"/>
-      <c r="C3" s="1082"/>
-      <c r="D3" s="1082"/>
-      <c r="E3" s="1082"/>
-      <c r="F3" s="1082"/>
-      <c r="G3" s="1082"/>
-      <c r="H3" s="1082"/>
-      <c r="I3" s="1083"/>
-      <c r="J3" s="1084">
+      <c r="B3" s="1152"/>
+      <c r="C3" s="1152"/>
+      <c r="D3" s="1152"/>
+      <c r="E3" s="1152"/>
+      <c r="F3" s="1152"/>
+      <c r="G3" s="1152"/>
+      <c r="H3" s="1152"/>
+      <c r="I3" s="1153"/>
+      <c r="J3" s="898">
         <f>G7</f>
         <v>-176833</v>
       </c>
-      <c r="M3" s="1080" t="s">
+      <c r="M3" s="897" t="s">
         <v>146</v>
       </c>
-      <c r="N3" s="1080" t="s">
+      <c r="N3" s="897" t="s">
         <v>155</v>
       </c>
-      <c r="P3" s="1080" t="s">
+      <c r="P3" s="897" t="s">
         <v>1061</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="1085" t="s">
+      <c r="A4" s="1159" t="s">
         <v>1088</v>
       </c>
-      <c r="B4" s="1086"/>
-      <c r="C4" s="1086"/>
-      <c r="D4" s="1087"/>
-      <c r="E4" s="1086" t="s">
+      <c r="B4" s="1160"/>
+      <c r="C4" s="1160"/>
+      <c r="D4" s="899"/>
+      <c r="E4" s="1160" t="s">
         <v>1089</v>
       </c>
-      <c r="F4" s="1086"/>
-      <c r="G4" s="1086"/>
-      <c r="H4" s="1140">
+      <c r="F4" s="1160"/>
+      <c r="G4" s="1160"/>
+      <c r="H4" s="940">
         <f>G19+610093</f>
         <v>26788</v>
       </c>
-      <c r="I4" s="1089"/>
-      <c r="J4" s="1084">
+      <c r="I4" s="901"/>
+      <c r="J4" s="898">
         <f>G6</f>
         <v>-43275</v>
       </c>
-      <c r="N4" s="1080" t="s">
+      <c r="N4" s="897" t="s">
         <v>1062</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="1147"/>
-      <c r="B5" s="1148"/>
-      <c r="C5" s="1148"/>
-      <c r="D5" s="1149"/>
-      <c r="E5" s="1150" t="s">
+      <c r="A5" s="947"/>
+      <c r="B5" s="948"/>
+      <c r="C5" s="948"/>
+      <c r="D5" s="949"/>
+      <c r="E5" s="950" t="s">
         <v>1063</v>
       </c>
-      <c r="F5" s="1151"/>
-      <c r="G5" s="1152">
+      <c r="F5" s="951"/>
+      <c r="G5" s="952">
         <f>-1552</f>
         <v>-1552</v>
       </c>
-      <c r="H5" s="1150"/>
-      <c r="I5" s="1153"/>
-      <c r="J5" s="1084">
+      <c r="H5" s="950"/>
+      <c r="I5" s="953"/>
+      <c r="J5" s="898">
         <f>G5</f>
         <v>-1552</v>
       </c>
-      <c r="N5" s="1080" t="s">
+      <c r="N5" s="897" t="s">
         <v>1064</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1154" t="s">
+      <c r="A6" s="1161" t="s">
         <v>271</v>
       </c>
-      <c r="B6" s="1155"/>
-      <c r="C6" s="1156">
+      <c r="B6" s="1162"/>
+      <c r="C6" s="954">
         <f>58504+55414+45381+2331+4885+67+3744+429+63291+52861+9709</f>
         <v>296616</v>
       </c>
-      <c r="D6" s="1149"/>
-      <c r="E6" s="1150" t="s">
+      <c r="D6" s="949"/>
+      <c r="E6" s="950" t="s">
         <v>251</v>
       </c>
-      <c r="F6" s="1150"/>
-      <c r="G6" s="1157">
+      <c r="F6" s="950"/>
+      <c r="G6" s="955">
         <f>-43275</f>
         <v>-43275</v>
       </c>
-      <c r="H6" s="1150"/>
-      <c r="I6" s="1153"/>
-      <c r="J6" s="1084">
+      <c r="H6" s="950"/>
+      <c r="I6" s="953"/>
+      <c r="J6" s="898">
         <f>G13</f>
         <v>-62500</v>
       </c>
-      <c r="N6" s="1080" t="s">
+      <c r="N6" s="897" t="s">
         <v>1065</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1158" t="s">
+      <c r="A7" s="956" t="s">
         <v>1090</v>
       </c>
-      <c r="B7" s="1150"/>
-      <c r="C7" s="1156"/>
-      <c r="D7" s="1159"/>
-      <c r="E7" s="1160" t="s">
+      <c r="B7" s="950"/>
+      <c r="C7" s="954"/>
+      <c r="D7" s="957"/>
+      <c r="E7" s="1163" t="s">
         <v>1066</v>
       </c>
-      <c r="F7" s="1160"/>
-      <c r="G7" s="1157">
+      <c r="F7" s="1163"/>
+      <c r="G7" s="955">
         <f>-58643-1465-4818-40307-17240-47664-6696</f>
         <v>-176833</v>
       </c>
-      <c r="H7" s="1150"/>
-      <c r="I7" s="1153"/>
-      <c r="J7" s="1137">
+      <c r="H7" s="950"/>
+      <c r="I7" s="953"/>
+      <c r="J7" s="937">
         <f>J2+J3+J4+J5+J6</f>
         <v>12456</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1161" t="s">
+      <c r="A8" s="1164" t="s">
         <v>1067</v>
       </c>
-      <c r="B8" s="1162"/>
-      <c r="C8" s="1163">
+      <c r="B8" s="1165"/>
+      <c r="C8" s="958">
         <f>SUM(C6:C7)</f>
         <v>296616</v>
       </c>
-      <c r="D8" s="1164"/>
-      <c r="E8" s="1165" t="s">
+      <c r="D8" s="959"/>
+      <c r="E8" s="1166" t="s">
         <v>1068</v>
       </c>
-      <c r="F8" s="1165"/>
-      <c r="G8" s="1166">
+      <c r="F8" s="1166"/>
+      <c r="G8" s="960">
         <f>SUM(G5:G7)</f>
         <v>-221660</v>
       </c>
-      <c r="H8" s="1146" t="s">
+      <c r="H8" s="946" t="s">
         <v>239</v>
       </c>
-      <c r="I8" s="1167">
+      <c r="I8" s="961">
         <f>C8+G8</f>
         <v>74956</v>
       </c>
-      <c r="J8" s="1084"/>
-      <c r="K8" s="1084">
+      <c r="J8" s="898"/>
+      <c r="K8" s="898">
         <f>C10</f>
         <v>46347</v>
       </c>
-      <c r="M8" s="1080" t="s">
+      <c r="M8" s="897" t="s">
         <v>1069</v>
       </c>
-      <c r="O8" s="1080" t="s">
+      <c r="O8" s="897" t="s">
         <v>146</v>
       </c>
-      <c r="R8" s="1080">
+      <c r="R8" s="897">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1092"/>
-      <c r="B9" s="1093"/>
-      <c r="C9" s="1094"/>
-      <c r="D9" s="1105"/>
-      <c r="E9" s="1093"/>
-      <c r="F9" s="1093"/>
-      <c r="G9" s="1106"/>
-      <c r="H9" s="1103"/>
-      <c r="I9" s="1107"/>
-      <c r="J9" s="1084"/>
-      <c r="K9" s="1084">
+      <c r="A9" s="1167"/>
+      <c r="B9" s="1168"/>
+      <c r="C9" s="904"/>
+      <c r="D9" s="911"/>
+      <c r="E9" s="1168"/>
+      <c r="F9" s="1168"/>
+      <c r="G9" s="912"/>
+      <c r="H9" s="909"/>
+      <c r="I9" s="913"/>
+      <c r="J9" s="898"/>
+      <c r="K9" s="898">
         <f>G10</f>
         <v>-62977</v>
       </c>
-      <c r="M9" s="1080" t="s">
+      <c r="M9" s="897" t="s">
         <v>1070</v>
       </c>
-      <c r="O9" s="1080" t="s">
+      <c r="O9" s="897" t="s">
         <v>1071</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1168" t="s">
+      <c r="A10" s="1154" t="s">
         <v>243</v>
       </c>
-      <c r="B10" s="1169"/>
-      <c r="C10" s="1170">
+      <c r="B10" s="1155"/>
+      <c r="C10" s="962">
         <f>32829+133+13385</f>
         <v>46347</v>
       </c>
-      <c r="D10" s="1171"/>
-      <c r="E10" s="1169" t="s">
+      <c r="D10" s="963"/>
+      <c r="E10" s="1155" t="s">
         <v>244</v>
       </c>
-      <c r="F10" s="1169"/>
-      <c r="G10" s="1172">
+      <c r="F10" s="1155"/>
+      <c r="G10" s="964">
         <f>-59166-3437-374</f>
         <v>-62977</v>
       </c>
-      <c r="H10" s="1173" t="s">
+      <c r="H10" s="965" t="s">
         <v>245</v>
       </c>
-      <c r="I10" s="1174">
+      <c r="I10" s="966">
         <f>C10+G10</f>
         <v>-16630</v>
       </c>
-      <c r="J10" s="1084"/>
-      <c r="K10" s="1084">
+      <c r="J10" s="898"/>
+      <c r="K10" s="898">
         <f>K8+K9</f>
         <v>-16630</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1092"/>
-      <c r="B11" s="1093"/>
-      <c r="C11" s="1094"/>
-      <c r="D11" s="1110"/>
-      <c r="E11" s="1111"/>
-      <c r="F11" s="1111"/>
-      <c r="G11" s="1094"/>
-      <c r="H11" s="1112"/>
-      <c r="I11" s="1107"/>
-      <c r="J11" s="1084"/>
-      <c r="K11" s="1084"/>
-      <c r="L11" s="1084">
+      <c r="A11" s="1167"/>
+      <c r="B11" s="1168"/>
+      <c r="C11" s="904"/>
+      <c r="D11" s="916"/>
+      <c r="E11" s="1173"/>
+      <c r="F11" s="1173"/>
+      <c r="G11" s="904"/>
+      <c r="H11" s="917"/>
+      <c r="I11" s="913"/>
+      <c r="J11" s="898"/>
+      <c r="K11" s="898"/>
+      <c r="L11" s="898">
         <f>C14</f>
         <v>240342</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="1175"/>
-      <c r="B12" s="1176"/>
-      <c r="C12" s="1176"/>
-      <c r="D12" s="1177"/>
-      <c r="E12" s="1176" t="s">
+      <c r="A12" s="967"/>
+      <c r="B12" s="968"/>
+      <c r="C12" s="968"/>
+      <c r="D12" s="969"/>
+      <c r="E12" s="968" t="s">
         <v>1072</v>
       </c>
-      <c r="F12" s="1176"/>
-      <c r="G12" s="1178">
+      <c r="F12" s="968"/>
+      <c r="G12" s="970">
         <f>-240055-4322-18579</f>
         <v>-262956</v>
       </c>
-      <c r="H12" s="1179"/>
-      <c r="I12" s="1180"/>
-      <c r="J12" s="1084"/>
-      <c r="K12" s="1084"/>
-      <c r="L12" s="1084">
+      <c r="H12" s="971"/>
+      <c r="I12" s="972"/>
+      <c r="J12" s="898"/>
+      <c r="K12" s="898"/>
+      <c r="L12" s="898">
         <f>I8</f>
         <v>74956</v>
       </c>
-      <c r="M12" s="1080" t="s">
+      <c r="M12" s="897" t="s">
         <v>1069</v>
       </c>
-      <c r="O12" s="1080" t="s">
+      <c r="O12" s="897" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="1181"/>
-      <c r="B13" s="1182"/>
-      <c r="C13" s="1182"/>
-      <c r="D13" s="1183"/>
-      <c r="E13" s="1184" t="s">
+      <c r="A13" s="973"/>
+      <c r="B13" s="974"/>
+      <c r="C13" s="974"/>
+      <c r="D13" s="975"/>
+      <c r="E13" s="1174" t="s">
         <v>1073</v>
       </c>
-      <c r="F13" s="1184"/>
-      <c r="G13" s="1178">
+      <c r="F13" s="1174"/>
+      <c r="G13" s="970">
         <f>-62500</f>
         <v>-62500</v>
       </c>
-      <c r="H13" s="1185"/>
-      <c r="I13" s="1186"/>
-      <c r="K13" s="1084"/>
-      <c r="L13" s="1084">
+      <c r="H13" s="976"/>
+      <c r="I13" s="977"/>
+      <c r="K13" s="898"/>
+      <c r="L13" s="898">
         <f>I10</f>
         <v>-16630</v>
       </c>
-      <c r="M13" s="1080" t="s">
+      <c r="M13" s="897" t="s">
         <v>1074</v>
       </c>
-      <c r="O13" s="1080" t="s">
+      <c r="O13" s="897" t="s">
         <v>1075</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1187" t="s">
+      <c r="A14" s="1175" t="s">
         <v>253</v>
       </c>
-      <c r="B14" s="1188"/>
-      <c r="C14" s="1189">
+      <c r="B14" s="1176"/>
+      <c r="C14" s="978">
         <f>240342</f>
         <v>240342</v>
       </c>
-      <c r="D14" s="1183"/>
-      <c r="E14" s="1190" t="s">
+      <c r="D14" s="975"/>
+      <c r="E14" s="1177" t="s">
         <v>254</v>
       </c>
-      <c r="F14" s="1190"/>
-      <c r="G14" s="1191">
+      <c r="F14" s="1177"/>
+      <c r="G14" s="979">
         <f>SUM(G12:G13)</f>
         <v>-325456</v>
       </c>
-      <c r="H14" s="1192" t="s">
+      <c r="H14" s="980" t="s">
         <v>255</v>
       </c>
-      <c r="I14" s="1193">
+      <c r="I14" s="981">
         <f>C14+G14</f>
         <v>-85114</v>
       </c>
-      <c r="K14" s="1084"/>
-      <c r="L14" s="1084">
+      <c r="K14" s="898"/>
+      <c r="L14" s="898">
         <f>G12</f>
         <v>-262956</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1194"/>
-      <c r="B15" s="1195"/>
-      <c r="C15" s="1196"/>
-      <c r="D15" s="1197"/>
-      <c r="E15" s="1198" t="s">
+      <c r="A15" s="982"/>
+      <c r="B15" s="983"/>
+      <c r="C15" s="984"/>
+      <c r="D15" s="985"/>
+      <c r="E15" s="986" t="s">
         <v>1076</v>
       </c>
-      <c r="F15" s="1199"/>
-      <c r="G15" s="1200"/>
-      <c r="H15" s="1192" t="s">
+      <c r="F15" s="987"/>
+      <c r="G15" s="988"/>
+      <c r="H15" s="980" t="s">
         <v>1077</v>
       </c>
-      <c r="I15" s="1193">
+      <c r="I15" s="981">
         <v>0</v>
       </c>
-      <c r="K15" s="1084"/>
-      <c r="L15" s="1084">
+      <c r="K15" s="898"/>
+      <c r="L15" s="898">
         <f>G13</f>
         <v>-62500</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1117"/>
-      <c r="B16" s="1118"/>
-      <c r="C16" s="1119"/>
-      <c r="D16" s="1124"/>
-      <c r="E16" s="1121"/>
-      <c r="F16" s="1121"/>
-      <c r="G16" s="1119"/>
-      <c r="H16" s="1103"/>
-      <c r="I16" s="1125"/>
-      <c r="K16" s="1084"/>
-      <c r="L16" s="1084">
+      <c r="A16" s="922"/>
+      <c r="B16" s="923"/>
+      <c r="C16" s="924"/>
+      <c r="D16" s="929"/>
+      <c r="E16" s="926"/>
+      <c r="F16" s="926"/>
+      <c r="G16" s="924"/>
+      <c r="H16" s="909"/>
+      <c r="I16" s="930"/>
+      <c r="K16" s="898"/>
+      <c r="L16" s="898">
         <f>G17</f>
         <v>26788</v>
       </c>
-      <c r="M16" s="1080">
+      <c r="M16" s="897">
         <v>2018</v>
       </c>
-      <c r="N16" s="1080">
+      <c r="N16" s="897">
         <v>2019</v>
       </c>
-      <c r="O16" s="1080">
+      <c r="O16" s="897">
         <v>2020</v>
       </c>
-      <c r="P16" s="1080" t="s">
+      <c r="P16" s="897" t="s">
         <v>1078</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="1092" t="s">
+      <c r="A17" s="1167" t="s">
         <v>276</v>
       </c>
-      <c r="B17" s="1093"/>
-      <c r="C17" s="1108"/>
-      <c r="D17" s="1126" t="s">
+      <c r="B17" s="1168"/>
+      <c r="C17" s="914"/>
+      <c r="D17" s="931" t="s">
         <v>259</v>
       </c>
-      <c r="E17" s="1101" t="s">
+      <c r="E17" s="1169" t="s">
         <v>260</v>
       </c>
-      <c r="F17" s="1101"/>
-      <c r="G17" s="1108">
+      <c r="F17" s="1169"/>
+      <c r="G17" s="914">
         <f>-I17</f>
         <v>26788</v>
       </c>
-      <c r="H17" s="1127" t="s">
+      <c r="H17" s="932" t="s">
         <v>261</v>
       </c>
-      <c r="I17" s="1109">
+      <c r="I17" s="915">
         <f>I8+I10+I14+I15</f>
         <v>-26788</v>
       </c>
-      <c r="K17" s="1084"/>
-      <c r="L17" s="1084">
+      <c r="K17" s="898"/>
+      <c r="L17" s="898">
         <f>L11+L12+L13+L14+L15+L16</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1096"/>
-      <c r="B18" s="1088"/>
-      <c r="C18" s="1119"/>
-      <c r="D18" s="1120"/>
-      <c r="E18" s="1116"/>
-      <c r="F18" s="1116"/>
-      <c r="G18" s="1119"/>
-      <c r="H18" s="1201" t="s">
+      <c r="A18" s="906"/>
+      <c r="B18" s="900"/>
+      <c r="C18" s="924"/>
+      <c r="D18" s="925"/>
+      <c r="E18" s="921"/>
+      <c r="F18" s="921"/>
+      <c r="G18" s="924"/>
+      <c r="H18" s="989" t="s">
         <v>262</v>
       </c>
-      <c r="I18" s="1202">
+      <c r="I18" s="990">
         <v>43130</v>
       </c>
-      <c r="L18" s="1084"/>
+      <c r="L18" s="898"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="1128" t="s">
+      <c r="A19" s="1170" t="s">
         <v>264</v>
       </c>
-      <c r="B19" s="1129"/>
-      <c r="C19" s="1130">
+      <c r="B19" s="1171"/>
+      <c r="C19" s="933">
         <f>C8+C10+C14+C17</f>
         <v>583305</v>
       </c>
-      <c r="D19" s="1131" t="s">
+      <c r="D19" s="934" t="s">
         <v>281</v>
       </c>
-      <c r="E19" s="1132" t="s">
+      <c r="E19" s="1172" t="s">
         <v>265</v>
       </c>
-      <c r="F19" s="1132"/>
-      <c r="G19" s="1130">
+      <c r="F19" s="1172"/>
+      <c r="G19" s="933">
         <f>G8+G10+G14+G15+G17</f>
         <v>-583305</v>
       </c>
-      <c r="H19" s="1203" t="s">
+      <c r="H19" s="991" t="s">
         <v>266</v>
       </c>
-      <c r="I19" s="1204">
+      <c r="I19" s="992">
         <f>I18+I17</f>
         <v>16342</v>
       </c>
-      <c r="L19" s="1084"/>
-      <c r="N19" s="1080">
+      <c r="L19" s="898"/>
+      <c r="N19" s="897">
         <v>2019</v>
       </c>
-      <c r="O19" s="1080">
+      <c r="O19" s="897">
         <v>2020</v>
       </c>
-      <c r="P19" s="1080" t="s">
+      <c r="P19" s="897" t="s">
         <v>1079</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="1076">
+      <c r="A20" s="1156">
         <v>0</v>
       </c>
-      <c r="B20" s="1077"/>
-      <c r="C20" s="1077"/>
-      <c r="D20" s="1077"/>
-      <c r="E20" s="1077"/>
-      <c r="F20" s="1077"/>
-      <c r="G20" s="1077"/>
-      <c r="H20" s="1077"/>
-      <c r="I20" s="1078"/>
+      <c r="B20" s="1157"/>
+      <c r="C20" s="1157"/>
+      <c r="D20" s="1157"/>
+      <c r="E20" s="1157"/>
+      <c r="F20" s="1157"/>
+      <c r="G20" s="1157"/>
+      <c r="H20" s="1157"/>
+      <c r="I20" s="1158"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="1081" t="s">
+      <c r="A21" s="1151" t="s">
         <v>1091</v>
       </c>
-      <c r="B21" s="1082"/>
-      <c r="C21" s="1082"/>
-      <c r="D21" s="1082"/>
-      <c r="E21" s="1082"/>
-      <c r="F21" s="1082"/>
-      <c r="G21" s="1082"/>
-      <c r="H21" s="1082"/>
-      <c r="I21" s="1083"/>
-      <c r="P21" s="1080" t="s">
+      <c r="B21" s="1152"/>
+      <c r="C21" s="1152"/>
+      <c r="D21" s="1152"/>
+      <c r="E21" s="1152"/>
+      <c r="F21" s="1152"/>
+      <c r="G21" s="1152"/>
+      <c r="H21" s="1152"/>
+      <c r="I21" s="1153"/>
+      <c r="P21" s="897" t="s">
         <v>1081</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="1081" t="s">
+      <c r="A22" s="1151" t="s">
         <v>1082</v>
       </c>
-      <c r="B22" s="1082"/>
-      <c r="C22" s="1082"/>
-      <c r="D22" s="1082"/>
-      <c r="E22" s="1082"/>
-      <c r="F22" s="1082"/>
-      <c r="G22" s="1082"/>
-      <c r="H22" s="1082"/>
-      <c r="I22" s="1083"/>
+      <c r="B22" s="1152"/>
+      <c r="C22" s="1152"/>
+      <c r="D22" s="1152"/>
+      <c r="E22" s="1152"/>
+      <c r="F22" s="1152"/>
+      <c r="G22" s="1152"/>
+      <c r="H22" s="1152"/>
+      <c r="I22" s="1153"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="1085" t="s">
+      <c r="A23" s="1159" t="s">
         <v>233</v>
       </c>
-      <c r="B23" s="1086"/>
-      <c r="C23" s="1086"/>
-      <c r="D23" s="1087"/>
-      <c r="E23" s="1086" t="s">
+      <c r="B23" s="1160"/>
+      <c r="C23" s="1160"/>
+      <c r="D23" s="899"/>
+      <c r="E23" s="1160" t="s">
         <v>234</v>
       </c>
-      <c r="F23" s="1086"/>
-      <c r="G23" s="1086"/>
-      <c r="H23" s="1088"/>
-      <c r="I23" s="1089"/>
+      <c r="F23" s="1160"/>
+      <c r="G23" s="1160"/>
+      <c r="H23" s="900"/>
+      <c r="I23" s="901"/>
     </row>
     <row r="24" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1090"/>
-      <c r="B24" s="1091"/>
-      <c r="C24" s="1091"/>
+      <c r="A24" s="902"/>
+      <c r="B24" s="903"/>
+      <c r="C24" s="903"/>
       <c r="D24" s="599"/>
-      <c r="E24" s="1088" t="s">
+      <c r="E24" s="900" t="s">
         <v>1063</v>
       </c>
-      <c r="F24" s="1088"/>
-      <c r="G24" s="1095"/>
-      <c r="H24" s="1088"/>
-      <c r="I24" s="1089"/>
-      <c r="J24" s="1079" t="s">
+      <c r="F24" s="900"/>
+      <c r="G24" s="905"/>
+      <c r="H24" s="900"/>
+      <c r="I24" s="901"/>
+      <c r="J24" s="896" t="s">
         <v>1092</v>
       </c>
-      <c r="K24" s="1079" t="s">
+      <c r="K24" s="896" t="s">
         <v>1093</v>
       </c>
-      <c r="L24" s="1079" t="s">
+      <c r="L24" s="896" t="s">
         <v>1094</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1090"/>
-      <c r="B25" s="1091"/>
-      <c r="C25" s="1091"/>
+      <c r="A25" s="902"/>
+      <c r="B25" s="903"/>
+      <c r="C25" s="903"/>
       <c r="D25" s="599"/>
-      <c r="E25" s="1088" t="s">
+      <c r="E25" s="900" t="s">
         <v>251</v>
       </c>
-      <c r="F25" s="1088"/>
-      <c r="G25" s="1095"/>
-      <c r="H25" s="1088"/>
-      <c r="I25" s="1089"/>
-      <c r="J25" s="1084">
+      <c r="F25" s="900"/>
+      <c r="G25" s="905"/>
+      <c r="H25" s="900"/>
+      <c r="I25" s="901"/>
+      <c r="J25" s="898">
         <f>C27</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1135"/>
-      <c r="B26" s="1136"/>
-      <c r="C26" s="1136"/>
+      <c r="A26" s="1181"/>
+      <c r="B26" s="1182"/>
+      <c r="C26" s="1182"/>
       <c r="D26" s="680"/>
-      <c r="E26" s="1097" t="s">
+      <c r="E26" s="1180" t="s">
         <v>1095</v>
       </c>
-      <c r="F26" s="1097"/>
-      <c r="G26" s="1095"/>
-      <c r="H26" s="1088"/>
-      <c r="I26" s="1089"/>
-      <c r="J26" s="1084">
+      <c r="F26" s="1180"/>
+      <c r="G26" s="905"/>
+      <c r="H26" s="900"/>
+      <c r="I26" s="901"/>
+      <c r="J26" s="898">
         <f>G26</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1098" t="s">
+      <c r="A27" s="1178" t="s">
         <v>271</v>
       </c>
-      <c r="B27" s="1099"/>
-      <c r="C27" s="1108"/>
-      <c r="D27" s="1120"/>
-      <c r="E27" s="1101" t="s">
+      <c r="B27" s="1179"/>
+      <c r="C27" s="914"/>
+      <c r="D27" s="925"/>
+      <c r="E27" s="1169" t="s">
         <v>272</v>
       </c>
-      <c r="F27" s="1101"/>
-      <c r="G27" s="1102">
+      <c r="F27" s="1169"/>
+      <c r="G27" s="908">
         <f>SUM(G24:G26)</f>
         <v>0</v>
       </c>
-      <c r="H27" s="1103" t="s">
+      <c r="H27" s="909" t="s">
         <v>239</v>
       </c>
-      <c r="I27" s="1104">
+      <c r="I27" s="910">
         <f>C27+G27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="1084">
+      <c r="J27" s="898">
         <f>G24</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1092"/>
-      <c r="B28" s="1093"/>
-      <c r="C28" s="1094"/>
-      <c r="D28" s="1105"/>
-      <c r="E28" s="1093"/>
-      <c r="F28" s="1093"/>
-      <c r="G28" s="1106"/>
-      <c r="H28" s="1103"/>
-      <c r="I28" s="1107"/>
-      <c r="J28" s="1084">
+      <c r="A28" s="1167"/>
+      <c r="B28" s="1168"/>
+      <c r="C28" s="904"/>
+      <c r="D28" s="911"/>
+      <c r="E28" s="1168"/>
+      <c r="F28" s="1168"/>
+      <c r="G28" s="912"/>
+      <c r="H28" s="909"/>
+      <c r="I28" s="913"/>
+      <c r="J28" s="898">
         <f>G25</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1098" t="s">
+      <c r="A29" s="1178" t="s">
         <v>243</v>
       </c>
-      <c r="B29" s="1099"/>
-      <c r="C29" s="1108"/>
+      <c r="B29" s="1179"/>
+      <c r="C29" s="914"/>
       <c r="D29" s="599"/>
-      <c r="E29" s="1099" t="s">
+      <c r="E29" s="1179" t="s">
         <v>244</v>
       </c>
-      <c r="F29" s="1099"/>
-      <c r="G29" s="1100"/>
-      <c r="H29" s="1103" t="s">
+      <c r="F29" s="1179"/>
+      <c r="G29" s="907"/>
+      <c r="H29" s="909" t="s">
         <v>245</v>
       </c>
-      <c r="I29" s="1109">
+      <c r="I29" s="915">
         <f>C29+G29</f>
         <v>0</v>
       </c>
-      <c r="J29" s="1084">
+      <c r="J29" s="898">
         <f>G32</f>
         <v>0</v>
       </c>
-      <c r="K29" s="1084">
+      <c r="K29" s="898">
         <f>C29</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1092"/>
-      <c r="B30" s="1093"/>
-      <c r="C30" s="1094"/>
+      <c r="A30" s="1167"/>
+      <c r="B30" s="1168"/>
+      <c r="C30" s="904"/>
       <c r="D30" s="895"/>
       <c r="E30" s="895"/>
       <c r="F30" s="895"/>
-      <c r="G30" s="1094"/>
-      <c r="H30" s="1112"/>
-      <c r="I30" s="1107"/>
-      <c r="J30" s="1137">
+      <c r="G30" s="904"/>
+      <c r="H30" s="917"/>
+      <c r="I30" s="913"/>
+      <c r="J30" s="937">
         <f>J25+J26+J27+J28+J29</f>
         <v>0</v>
       </c>
-      <c r="K30" s="1084">
+      <c r="K30" s="898">
         <f>G29</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="1113"/>
+      <c r="A31" s="918"/>
       <c r="D31" s="683"/>
-      <c r="E31" s="1080" t="s">
+      <c r="E31" s="897" t="s">
         <v>1072</v>
       </c>
-      <c r="G31" s="1094"/>
-      <c r="H31" s="1114"/>
-      <c r="I31" s="1115"/>
-      <c r="J31" s="1138">
+      <c r="G31" s="904"/>
+      <c r="H31" s="919"/>
+      <c r="I31" s="920"/>
+      <c r="J31" s="938">
         <f>-F30</f>
         <v>0</v>
       </c>
-      <c r="K31" s="1084">
+      <c r="K31" s="898">
         <f>K29+K30</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="1096"/>
-      <c r="B32" s="1088"/>
-      <c r="C32" s="1088"/>
+      <c r="A32" s="906"/>
+      <c r="B32" s="900"/>
+      <c r="C32" s="900"/>
       <c r="D32" s="599"/>
-      <c r="E32" s="1097" t="s">
+      <c r="E32" s="1180" t="s">
         <v>1096</v>
       </c>
-      <c r="F32" s="1097"/>
-      <c r="G32" s="1094"/>
-      <c r="H32" s="1116"/>
-      <c r="I32" s="1107"/>
-      <c r="J32" s="1084">
+      <c r="F32" s="1180"/>
+      <c r="G32" s="904"/>
+      <c r="H32" s="921"/>
+      <c r="I32" s="913"/>
+      <c r="J32" s="898">
         <f>J30+J31</f>
         <v>0</v>
       </c>
-      <c r="K32" s="1138">
+      <c r="K32" s="938">
         <f>D32</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1098" t="s">
+      <c r="A33" s="1178" t="s">
         <v>253</v>
       </c>
-      <c r="B33" s="1099"/>
-      <c r="C33" s="1108"/>
+      <c r="B33" s="1179"/>
+      <c r="C33" s="914"/>
       <c r="D33" s="599"/>
-      <c r="E33" s="1101" t="s">
+      <c r="E33" s="1169" t="s">
         <v>254</v>
       </c>
-      <c r="F33" s="1101"/>
-      <c r="G33" s="1100">
+      <c r="F33" s="1169"/>
+      <c r="G33" s="907">
         <f>SUM(G31:G32)</f>
         <v>0</v>
       </c>
-      <c r="H33" s="1103" t="s">
+      <c r="H33" s="909" t="s">
         <v>255</v>
       </c>
-      <c r="I33" s="1104">
+      <c r="I33" s="910">
         <f>C33+G33</f>
         <v>0</v>
       </c>
-      <c r="K33" s="1084">
+      <c r="K33" s="898">
         <f>K31+K32</f>
         <v>0</v>
       </c>
-      <c r="L33" s="1084">
+      <c r="L33" s="898">
         <f>C33</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1117"/>
-      <c r="B34" s="1118"/>
-      <c r="C34" s="1119"/>
-      <c r="D34" s="1120"/>
-      <c r="E34" s="1121" t="s">
+      <c r="A34" s="922"/>
+      <c r="B34" s="923"/>
+      <c r="C34" s="924"/>
+      <c r="D34" s="925"/>
+      <c r="E34" s="926" t="s">
         <v>1076</v>
       </c>
-      <c r="F34" s="1122"/>
-      <c r="G34" s="1123">
+      <c r="F34" s="927"/>
+      <c r="G34" s="928">
         <v>0</v>
       </c>
-      <c r="H34" s="1103" t="s">
+      <c r="H34" s="909" t="s">
         <v>1077</v>
       </c>
-      <c r="I34" s="1104">
+      <c r="I34" s="910">
         <v>0</v>
       </c>
-      <c r="L34" s="1084">
+      <c r="L34" s="898">
         <f>I29</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1117"/>
-      <c r="B35" s="1118"/>
-      <c r="C35" s="1119"/>
+      <c r="A35" s="922"/>
+      <c r="B35" s="923"/>
+      <c r="C35" s="924"/>
       <c r="D35" s="599"/>
-      <c r="E35" s="1121"/>
-      <c r="F35" s="1121"/>
-      <c r="G35" s="1119"/>
-      <c r="H35" s="1103"/>
-      <c r="I35" s="1125"/>
-      <c r="L35" s="1084">
+      <c r="E35" s="926"/>
+      <c r="F35" s="926"/>
+      <c r="G35" s="924"/>
+      <c r="H35" s="909"/>
+      <c r="I35" s="930"/>
+      <c r="L35" s="898">
         <f>L33+L34</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1098" t="s">
+      <c r="A36" s="1178" t="s">
         <v>276</v>
       </c>
-      <c r="B36" s="1099"/>
-      <c r="C36" s="1108"/>
-      <c r="D36" s="1120"/>
-      <c r="E36" s="1097" t="s">
+      <c r="B36" s="1179"/>
+      <c r="C36" s="914"/>
+      <c r="D36" s="925"/>
+      <c r="E36" s="1180" t="s">
         <v>260</v>
       </c>
-      <c r="F36" s="1097"/>
-      <c r="G36" s="1108">
+      <c r="F36" s="1180"/>
+      <c r="G36" s="914">
         <f>-I36</f>
         <v>0</v>
       </c>
-      <c r="H36" s="1127" t="s">
+      <c r="H36" s="932" t="s">
         <v>261</v>
       </c>
-      <c r="I36" s="1109">
+      <c r="I36" s="915">
         <f>I27+I29+I33+I34</f>
         <v>0</v>
       </c>
-      <c r="L36" s="1084">
+      <c r="L36" s="898">
         <f>G31+18264</f>
         <v>18264</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1096"/>
-      <c r="B37" s="1088"/>
-      <c r="C37" s="1119"/>
-      <c r="D37" s="1120"/>
-      <c r="E37" s="1116"/>
-      <c r="F37" s="1116"/>
-      <c r="G37" s="1119"/>
-      <c r="H37" s="1103" t="s">
+      <c r="A37" s="906"/>
+      <c r="B37" s="900"/>
+      <c r="C37" s="924"/>
+      <c r="D37" s="925"/>
+      <c r="E37" s="921"/>
+      <c r="F37" s="921"/>
+      <c r="G37" s="924"/>
+      <c r="H37" s="909" t="s">
         <v>262</v>
       </c>
-      <c r="I37" s="1125"/>
-      <c r="L37" s="1084">
+      <c r="I37" s="930"/>
+      <c r="L37" s="898">
         <f>L35+L36</f>
         <v>18264</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1128" t="s">
+      <c r="A38" s="1170" t="s">
         <v>264</v>
       </c>
-      <c r="B38" s="1129"/>
-      <c r="C38" s="1130">
+      <c r="B38" s="1171"/>
+      <c r="C38" s="933">
         <f>C27+C29+C33+C36</f>
         <v>0</v>
       </c>
-      <c r="D38" s="1139"/>
-      <c r="E38" s="1132" t="s">
+      <c r="D38" s="939"/>
+      <c r="E38" s="1172" t="s">
         <v>265</v>
       </c>
-      <c r="F38" s="1132"/>
-      <c r="G38" s="1130">
+      <c r="F38" s="1172"/>
+      <c r="G38" s="933">
         <f>G27+G29+G33+G36</f>
         <v>0</v>
       </c>
-      <c r="H38" s="1133" t="s">
+      <c r="H38" s="935" t="s">
         <v>266</v>
       </c>
-      <c r="I38" s="1134">
+      <c r="I38" s="936">
         <f>I37+I36</f>
         <v>0</v>
       </c>
-      <c r="L38" s="1079">
+      <c r="L38" s="896">
         <f>-D35</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="1088"/>
-      <c r="B39" s="1088"/>
-      <c r="C39" s="1088"/>
-      <c r="D39" s="1120"/>
-      <c r="E39" s="1088"/>
-      <c r="F39" s="1088"/>
-      <c r="G39" s="1088"/>
-      <c r="I39" s="1140"/>
-      <c r="L39" s="1084">
+      <c r="A39" s="900"/>
+      <c r="B39" s="900"/>
+      <c r="C39" s="900"/>
+      <c r="D39" s="925"/>
+      <c r="E39" s="900"/>
+      <c r="F39" s="900"/>
+      <c r="G39" s="900"/>
+      <c r="I39" s="940"/>
+      <c r="L39" s="898">
         <f>L37+L38</f>
         <v>18264</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H41" s="1142" t="s">
+      <c r="H41" s="942" t="s">
         <v>1097</v>
       </c>
-      <c r="I41" s="1142" t="s">
+      <c r="I41" s="942" t="s">
         <v>1098</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B42" s="1143" t="s">
+      <c r="B42" s="943" t="s">
         <v>1084</v>
       </c>
-      <c r="D42" s="1141" t="s">
+      <c r="D42" s="941" t="s">
         <v>1099</v>
       </c>
       <c r="H42" s="694">
@@ -60665,15 +60684,15 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B43" s="1143"/>
+      <c r="B43" s="943"/>
       <c r="H43" s="694"/>
       <c r="I43" s="694"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B44" s="1143" t="s">
+      <c r="B44" s="943" t="s">
         <v>1086</v>
       </c>
-      <c r="D44" s="1141" t="s">
+      <c r="D44" s="941" t="s">
         <v>1100</v>
       </c>
       <c r="H44" s="694">
@@ -60686,31 +60705,58 @@
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F46" s="1141"/>
+      <c r="F46" s="941"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F47" s="1141"/>
-      <c r="H47" s="1141"/>
+      <c r="F47" s="941"/>
+      <c r="H47" s="941"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F48" s="1141"/>
+      <c r="F48" s="941"/>
     </row>
     <row r="49" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F49" s="1141"/>
-      <c r="H49" s="1144"/>
+      <c r="F49" s="941"/>
+      <c r="H49" s="944"/>
     </row>
     <row r="50" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F50" s="1141"/>
-      <c r="H50" s="1145"/>
+      <c r="F50" s="941"/>
+      <c r="H50" s="945"/>
     </row>
     <row r="51" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F51" s="1141"/>
+      <c r="F51" s="941"/>
     </row>
     <row r="52" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F52" s="1141"/>
+      <c r="F52" s="941"/>
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="E14:F14"/>
     <mergeCell ref="A21:I21"/>
     <mergeCell ref="A22:I22"/>
     <mergeCell ref="A10:B10"/>
@@ -60727,33 +60773,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="A17:B17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="E33:F33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -60788,30 +60807,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="1069" t="s">
+      <c r="A1" s="1193" t="s">
         <v>1080</v>
       </c>
-      <c r="B1" s="1070"/>
-      <c r="C1" s="1070"/>
-      <c r="D1" s="1070"/>
-      <c r="E1" s="1070"/>
-      <c r="F1" s="1070"/>
-      <c r="G1" s="1070"/>
-      <c r="H1" s="1070"/>
-      <c r="I1" s="1071"/>
+      <c r="B1" s="1194"/>
+      <c r="C1" s="1194"/>
+      <c r="D1" s="1194"/>
+      <c r="E1" s="1194"/>
+      <c r="F1" s="1194"/>
+      <c r="G1" s="1194"/>
+      <c r="H1" s="1194"/>
+      <c r="I1" s="1195"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="1072" t="s">
+      <c r="A2" s="1196" t="s">
         <v>230</v>
       </c>
-      <c r="B2" s="1073"/>
-      <c r="C2" s="1073"/>
-      <c r="D2" s="1073"/>
-      <c r="E2" s="1073"/>
-      <c r="F2" s="1073"/>
-      <c r="G2" s="1073"/>
-      <c r="H2" s="1073"/>
-      <c r="I2" s="1074"/>
+      <c r="B2" s="1197"/>
+      <c r="C2" s="1197"/>
+      <c r="D2" s="1197"/>
+      <c r="E2" s="1197"/>
+      <c r="F2" s="1197"/>
+      <c r="G2" s="1197"/>
+      <c r="H2" s="1197"/>
+      <c r="I2" s="1198"/>
       <c r="P2" s="691">
         <v>2020</v>
       </c>
@@ -60820,44 +60839,44 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1072" t="s">
+      <c r="A3" s="1196" t="s">
         <v>231</v>
       </c>
-      <c r="B3" s="1073"/>
-      <c r="C3" s="1073"/>
-      <c r="D3" s="1073"/>
-      <c r="E3" s="1073"/>
-      <c r="F3" s="1073"/>
-      <c r="G3" s="1073"/>
-      <c r="H3" s="1073"/>
-      <c r="I3" s="1074"/>
+      <c r="B3" s="1197"/>
+      <c r="C3" s="1197"/>
+      <c r="D3" s="1197"/>
+      <c r="E3" s="1197"/>
+      <c r="F3" s="1197"/>
+      <c r="G3" s="1197"/>
+      <c r="H3" s="1197"/>
+      <c r="I3" s="1198"/>
       <c r="L3" s="303" t="s">
         <v>1101</v>
       </c>
       <c r="O3" s="262" t="s">
         <v>146</v>
       </c>
-      <c r="P3" s="1206">
+      <c r="P3" s="994">
         <f>(C7/-(G6+G5+G12))</f>
         <v>0.94698991390448062</v>
       </c>
-      <c r="Q3" s="1208" t="e">
+      <c r="Q3" s="996" t="e">
         <f>(C25/(-(G24+G23+G30)))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1055" t="s">
+      <c r="A4" s="1199" t="s">
         <v>233</v>
       </c>
-      <c r="B4" s="1056"/>
-      <c r="C4" s="1056"/>
+      <c r="B4" s="1200"/>
+      <c r="C4" s="1200"/>
       <c r="D4" s="681"/>
-      <c r="E4" s="1056" t="s">
+      <c r="E4" s="1200" t="s">
         <v>234</v>
       </c>
-      <c r="F4" s="1056"/>
-      <c r="G4" s="1056"/>
+      <c r="F4" s="1200"/>
+      <c r="G4" s="1200"/>
       <c r="H4" s="263"/>
       <c r="I4" s="264"/>
       <c r="J4" s="304"/>
@@ -60865,7 +60884,9 @@
         <v>1102</v>
       </c>
       <c r="P4" s="692"/>
-      <c r="Q4" s="692"/>
+      <c r="Q4" s="1209" t="s">
+        <v>1134</v>
+      </c>
     </row>
     <row r="5" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="675"/>
@@ -60886,16 +60907,16 @@
       <c r="Q5" s="692"/>
     </row>
     <row r="6" spans="1:17" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1057"/>
-      <c r="B6" s="1058"/>
-      <c r="C6" s="1058"/>
-      <c r="D6" s="1205">
+      <c r="A6" s="1201"/>
+      <c r="B6" s="1202"/>
+      <c r="C6" s="1202"/>
+      <c r="D6" s="993">
         <v>6021</v>
       </c>
-      <c r="E6" s="1059" t="s">
+      <c r="E6" s="1189" t="s">
         <v>1083</v>
       </c>
-      <c r="F6" s="1059"/>
+      <c r="F6" s="1189"/>
       <c r="G6" s="265">
         <v>-430101</v>
       </c>
@@ -60906,22 +60927,22 @@
       <c r="Q6" s="692"/>
     </row>
     <row r="7" spans="1:17" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1066" t="s">
+      <c r="A7" s="1190" t="s">
         <v>237</v>
       </c>
-      <c r="B7" s="1067"/>
+      <c r="B7" s="1191"/>
       <c r="C7" s="291">
         <f>417704+6728+39+7061+4590</f>
         <v>436122</v>
       </c>
-      <c r="D7" s="1205">
+      <c r="D7" s="993">
         <f>C7-D6</f>
         <v>430101</v>
       </c>
-      <c r="E7" s="1068" t="s">
+      <c r="E7" s="1192" t="s">
         <v>238</v>
       </c>
-      <c r="F7" s="1068"/>
+      <c r="F7" s="1192"/>
       <c r="G7" s="292">
         <f>G5+G6</f>
         <v>-448615</v>
@@ -60943,7 +60964,7 @@
       <c r="O7" s="262" t="s">
         <v>146</v>
       </c>
-      <c r="P7" s="1207">
+      <c r="P7" s="995">
         <f>(C7/-(G6+G5+G12+G11))</f>
         <v>0.8838578927102122</v>
       </c>
@@ -60953,15 +60974,15 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="27.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1053"/>
-      <c r="B8" s="1054"/>
+      <c r="A8" s="1186"/>
+      <c r="B8" s="1187"/>
       <c r="C8" s="269"/>
-      <c r="D8" s="1205">
+      <c r="D8" s="993">
         <f>I9</f>
         <v>53</v>
       </c>
-      <c r="E8" s="1054"/>
-      <c r="F8" s="1054"/>
+      <c r="E8" s="1187"/>
+      <c r="F8" s="1187"/>
       <c r="G8" s="270"/>
       <c r="H8" s="267"/>
       <c r="I8" s="271"/>
@@ -60974,21 +60995,21 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1066" t="s">
+      <c r="A9" s="1190" t="s">
         <v>243</v>
       </c>
-      <c r="B9" s="1067"/>
+      <c r="B9" s="1191"/>
       <c r="C9" s="294">
         <v>324</v>
       </c>
-      <c r="D9" s="1205">
+      <c r="D9" s="993">
         <f>G9</f>
         <v>-271</v>
       </c>
-      <c r="E9" s="1067" t="s">
+      <c r="E9" s="1191" t="s">
         <v>244</v>
       </c>
-      <c r="F9" s="1067"/>
+      <c r="F9" s="1191"/>
       <c r="G9" s="295">
         <v>-271</v>
       </c>
@@ -61006,12 +61027,12 @@
       <c r="K9" s="304"/>
     </row>
     <row r="10" spans="1:17" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1053"/>
-      <c r="B10" s="1054"/>
+      <c r="A10" s="1186"/>
+      <c r="B10" s="1187"/>
       <c r="C10" s="269"/>
-      <c r="D10" s="1205"/>
-      <c r="E10" s="1075"/>
-      <c r="F10" s="1075"/>
+      <c r="D10" s="993"/>
+      <c r="E10" s="1188"/>
+      <c r="F10" s="1188"/>
       <c r="G10" s="269"/>
       <c r="H10" s="272"/>
       <c r="I10" s="271"/>
@@ -61020,7 +61041,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="273"/>
-      <c r="D11" s="1205">
+      <c r="D11" s="993">
         <v>12440</v>
       </c>
       <c r="E11" s="262" t="s">
@@ -61042,13 +61063,13 @@
       <c r="A12" s="276"/>
       <c r="B12" s="263"/>
       <c r="C12" s="263"/>
-      <c r="D12" s="1205">
+      <c r="D12" s="993">
         <v>32895</v>
       </c>
-      <c r="E12" s="1059" t="s">
+      <c r="E12" s="1189" t="s">
         <v>251</v>
       </c>
-      <c r="F12" s="1059"/>
+      <c r="F12" s="1189"/>
       <c r="G12" s="269">
         <v>-11920</v>
       </c>
@@ -61059,20 +61080,20 @@
       <c r="L12" s="687"/>
     </row>
     <row r="13" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1066" t="s">
+      <c r="A13" s="1190" t="s">
         <v>253</v>
       </c>
-      <c r="B13" s="1067"/>
+      <c r="B13" s="1191"/>
       <c r="C13" s="297">
         <v>58312</v>
       </c>
-      <c r="D13" s="1205">
+      <c r="D13" s="993">
         <v>11920</v>
       </c>
-      <c r="E13" s="1068" t="s">
+      <c r="E13" s="1192" t="s">
         <v>254</v>
       </c>
-      <c r="F13" s="1068"/>
+      <c r="F13" s="1192"/>
       <c r="G13" s="298">
         <f>SUM(G11:G12)</f>
         <v>-44815</v>
@@ -61097,7 +61118,7 @@
         <f>I14</f>
         <v>69</v>
       </c>
-      <c r="D14" s="1205">
+      <c r="D14" s="993">
         <v>1057</v>
       </c>
       <c r="H14" s="267" t="s">
@@ -61121,18 +61142,18 @@
       <c r="L15" s="304"/>
     </row>
     <row r="16" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1066" t="s">
+      <c r="A16" s="1190" t="s">
         <v>276</v>
       </c>
-      <c r="B16" s="1067"/>
+      <c r="B16" s="1191"/>
       <c r="C16" s="305"/>
       <c r="D16" s="680" t="s">
         <v>259</v>
       </c>
-      <c r="E16" s="1059" t="s">
+      <c r="E16" s="1189" t="s">
         <v>260</v>
       </c>
-      <c r="F16" s="1059"/>
+      <c r="F16" s="1189"/>
       <c r="G16" s="266">
         <v>-1126</v>
       </c>
@@ -61163,10 +61184,10 @@
       <c r="L17" s="304"/>
     </row>
     <row r="18" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1050" t="s">
+      <c r="A18" s="1183" t="s">
         <v>264</v>
       </c>
-      <c r="B18" s="1051"/>
+      <c r="B18" s="1184"/>
       <c r="C18" s="300">
         <f>C7+C9+C13+C14+C16</f>
         <v>494827</v>
@@ -61174,10 +61195,10 @@
       <c r="D18" s="684" t="s">
         <v>281</v>
       </c>
-      <c r="E18" s="1052" t="s">
+      <c r="E18" s="1185" t="s">
         <v>265</v>
       </c>
-      <c r="F18" s="1052"/>
+      <c r="F18" s="1185"/>
       <c r="G18" s="300">
         <f>G7+G9+G13+G16</f>
         <v>-494827</v>
@@ -61192,56 +61213,56 @@
       <c r="L18" s="304"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="1060" t="s">
+      <c r="A19" s="1203" t="s">
         <v>1080</v>
       </c>
-      <c r="B19" s="1061"/>
-      <c r="C19" s="1061"/>
-      <c r="D19" s="1061"/>
-      <c r="E19" s="1061"/>
-      <c r="F19" s="1061"/>
-      <c r="G19" s="1061"/>
-      <c r="H19" s="1061"/>
-      <c r="I19" s="1062"/>
+      <c r="B19" s="1204"/>
+      <c r="C19" s="1204"/>
+      <c r="D19" s="1204"/>
+      <c r="E19" s="1204"/>
+      <c r="F19" s="1204"/>
+      <c r="G19" s="1204"/>
+      <c r="H19" s="1204"/>
+      <c r="I19" s="1205"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="1063" t="s">
+      <c r="A20" s="1206" t="s">
         <v>230</v>
       </c>
-      <c r="B20" s="1064"/>
-      <c r="C20" s="1064"/>
-      <c r="D20" s="1064"/>
-      <c r="E20" s="1064"/>
-      <c r="F20" s="1064"/>
-      <c r="G20" s="1064"/>
-      <c r="H20" s="1064"/>
-      <c r="I20" s="1065"/>
+      <c r="B20" s="1207"/>
+      <c r="C20" s="1207"/>
+      <c r="D20" s="1207"/>
+      <c r="E20" s="1207"/>
+      <c r="F20" s="1207"/>
+      <c r="G20" s="1207"/>
+      <c r="H20" s="1207"/>
+      <c r="I20" s="1208"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="1063" t="s">
+      <c r="A21" s="1206" t="s">
         <v>1082</v>
       </c>
-      <c r="B21" s="1064"/>
-      <c r="C21" s="1064"/>
-      <c r="D21" s="1064"/>
-      <c r="E21" s="1064"/>
-      <c r="F21" s="1064"/>
-      <c r="G21" s="1064"/>
-      <c r="H21" s="1064"/>
-      <c r="I21" s="1065"/>
+      <c r="B21" s="1207"/>
+      <c r="C21" s="1207"/>
+      <c r="D21" s="1207"/>
+      <c r="E21" s="1207"/>
+      <c r="F21" s="1207"/>
+      <c r="G21" s="1207"/>
+      <c r="H21" s="1207"/>
+      <c r="I21" s="1208"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="1055" t="s">
+      <c r="A22" s="1199" t="s">
         <v>233</v>
       </c>
-      <c r="B22" s="1056"/>
-      <c r="C22" s="1056"/>
+      <c r="B22" s="1200"/>
+      <c r="C22" s="1200"/>
       <c r="D22" s="681"/>
-      <c r="E22" s="1056" t="s">
+      <c r="E22" s="1200" t="s">
         <v>234</v>
       </c>
-      <c r="F22" s="1056"/>
-      <c r="G22" s="1056"/>
+      <c r="F22" s="1200"/>
+      <c r="G22" s="1200"/>
       <c r="H22" s="263"/>
       <c r="I22" s="264"/>
     </row>
@@ -61259,29 +61280,29 @@
       <c r="I23" s="264"/>
     </row>
     <row r="24" spans="1:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1057"/>
-      <c r="B24" s="1058"/>
-      <c r="C24" s="1058"/>
+      <c r="A24" s="1201"/>
+      <c r="B24" s="1202"/>
+      <c r="C24" s="1202"/>
       <c r="D24" s="680"/>
-      <c r="E24" s="1059" t="s">
+      <c r="E24" s="1189" t="s">
         <v>1083</v>
       </c>
-      <c r="F24" s="1059"/>
+      <c r="F24" s="1189"/>
       <c r="G24" s="602"/>
       <c r="H24" s="263"/>
       <c r="I24" s="264"/>
     </row>
     <row r="25" spans="1:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1066" t="s">
+      <c r="A25" s="1190" t="s">
         <v>237</v>
       </c>
-      <c r="B25" s="1067"/>
+      <c r="B25" s="1191"/>
       <c r="C25" s="291"/>
       <c r="D25" s="599"/>
-      <c r="E25" s="1068" t="s">
+      <c r="E25" s="1192" t="s">
         <v>238</v>
       </c>
-      <c r="F25" s="1068"/>
+      <c r="F25" s="1192"/>
       <c r="G25" s="292">
         <f>SUM(G23:G24)</f>
         <v>0</v>
@@ -61295,27 +61316,27 @@
       </c>
     </row>
     <row r="26" spans="1:12" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1053"/>
-      <c r="B26" s="1054"/>
+      <c r="A26" s="1186"/>
+      <c r="B26" s="1187"/>
       <c r="C26" s="269"/>
       <c r="D26" s="680"/>
-      <c r="E26" s="1054"/>
-      <c r="F26" s="1054"/>
+      <c r="E26" s="1187"/>
+      <c r="F26" s="1187"/>
       <c r="G26" s="270"/>
       <c r="H26" s="267"/>
       <c r="I26" s="271"/>
     </row>
     <row r="27" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1066" t="s">
+      <c r="A27" s="1190" t="s">
         <v>243</v>
       </c>
-      <c r="B27" s="1067"/>
+      <c r="B27" s="1191"/>
       <c r="C27" s="294"/>
       <c r="D27" s="599"/>
-      <c r="E27" s="1067" t="s">
+      <c r="E27" s="1191" t="s">
         <v>244</v>
       </c>
-      <c r="F27" s="1067"/>
+      <c r="F27" s="1191"/>
       <c r="G27" s="294"/>
       <c r="H27" s="267" t="s">
         <v>245</v>
@@ -61326,8 +61347,8 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1053"/>
-      <c r="B28" s="1054"/>
+      <c r="A28" s="1186"/>
+      <c r="B28" s="1187"/>
       <c r="C28" s="269"/>
       <c r="D28" s="690"/>
       <c r="E28" s="683">
@@ -61355,10 +61376,10 @@
       <c r="B30" s="263"/>
       <c r="C30" s="263"/>
       <c r="D30" s="689"/>
-      <c r="E30" s="1059" t="s">
+      <c r="E30" s="1189" t="s">
         <v>251</v>
       </c>
-      <c r="F30" s="1059"/>
+      <c r="F30" s="1189"/>
       <c r="G30" s="269"/>
       <c r="H30" s="674"/>
       <c r="I30" s="271"/>
@@ -61368,16 +61389,16 @@
       </c>
     </row>
     <row r="31" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1066" t="s">
+      <c r="A31" s="1190" t="s">
         <v>253</v>
       </c>
-      <c r="B31" s="1067"/>
+      <c r="B31" s="1191"/>
       <c r="C31" s="297"/>
       <c r="D31" s="599"/>
-      <c r="E31" s="1068" t="s">
+      <c r="E31" s="1192" t="s">
         <v>254</v>
       </c>
-      <c r="F31" s="1068"/>
+      <c r="F31" s="1192"/>
       <c r="G31" s="298">
         <f>SUM(G29:G30)</f>
         <v>0</v>
@@ -61430,18 +61451,18 @@
       <c r="I33" s="280"/>
     </row>
     <row r="34" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1066" t="s">
+      <c r="A34" s="1190" t="s">
         <v>276</v>
       </c>
-      <c r="B34" s="1067"/>
+      <c r="B34" s="1191"/>
       <c r="C34" s="266">
         <v>0</v>
       </c>
       <c r="D34" s="599"/>
-      <c r="E34" s="1059" t="s">
+      <c r="E34" s="1189" t="s">
         <v>260</v>
       </c>
-      <c r="F34" s="1059"/>
+      <c r="F34" s="1189"/>
       <c r="G34" s="266">
         <f>-I34</f>
         <v>0</v>
@@ -61476,19 +61497,19 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1050" t="s">
+      <c r="A36" s="1183" t="s">
         <v>264</v>
       </c>
-      <c r="B36" s="1051"/>
+      <c r="B36" s="1184"/>
       <c r="C36" s="281">
         <f>C25+C27+C31+C34</f>
         <v>0</v>
       </c>
       <c r="D36" s="685"/>
-      <c r="E36" s="1052" t="s">
+      <c r="E36" s="1185" t="s">
         <v>265</v>
       </c>
-      <c r="F36" s="1052"/>
+      <c r="F36" s="1185"/>
       <c r="G36" s="281">
         <f>G25+G27+G31+G32+G34</f>
         <v>0</v>
@@ -61604,28 +61625,13 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="A19:I19"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="E22:G22"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="A34:B34"/>
@@ -61640,13 +61646,28 @@
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="E31:F31"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="A19:I19"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="E16:F16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -61681,60 +61702,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="947" t="s">
+      <c r="A1" s="1030" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="948"/>
-      <c r="C1" s="948"/>
-      <c r="D1" s="948"/>
-      <c r="E1" s="948"/>
-      <c r="F1" s="948"/>
-      <c r="G1" s="948"/>
-      <c r="H1" s="948"/>
-      <c r="I1" s="949"/>
+      <c r="B1" s="1031"/>
+      <c r="C1" s="1031"/>
+      <c r="D1" s="1031"/>
+      <c r="E1" s="1031"/>
+      <c r="F1" s="1031"/>
+      <c r="G1" s="1031"/>
+      <c r="H1" s="1031"/>
+      <c r="I1" s="1032"/>
       <c r="J1" s="839"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="931" t="s">
+      <c r="A2" s="1033" t="s">
         <v>230</v>
       </c>
-      <c r="B2" s="932"/>
-      <c r="C2" s="932"/>
-      <c r="D2" s="932"/>
-      <c r="E2" s="932"/>
-      <c r="F2" s="932"/>
-      <c r="G2" s="932"/>
-      <c r="H2" s="932"/>
-      <c r="I2" s="950"/>
+      <c r="B2" s="1034"/>
+      <c r="C2" s="1034"/>
+      <c r="D2" s="1034"/>
+      <c r="E2" s="1034"/>
+      <c r="F2" s="1034"/>
+      <c r="G2" s="1034"/>
+      <c r="H2" s="1034"/>
+      <c r="I2" s="1035"/>
       <c r="J2" s="839"/>
     </row>
     <row r="3" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A3" s="931" t="s">
+      <c r="A3" s="1033" t="s">
         <v>1133</v>
       </c>
-      <c r="B3" s="932"/>
-      <c r="C3" s="932"/>
-      <c r="D3" s="932"/>
-      <c r="E3" s="932"/>
-      <c r="F3" s="932"/>
-      <c r="G3" s="932"/>
-      <c r="H3" s="932"/>
-      <c r="I3" s="950"/>
+      <c r="B3" s="1034"/>
+      <c r="C3" s="1034"/>
+      <c r="D3" s="1034"/>
+      <c r="E3" s="1034"/>
+      <c r="F3" s="1034"/>
+      <c r="G3" s="1034"/>
+      <c r="H3" s="1034"/>
+      <c r="I3" s="1035"/>
       <c r="J3" s="839"/>
       <c r="N3" s="841" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="939"/>
-      <c r="B4" s="940"/>
-      <c r="C4" s="940"/>
+      <c r="A4" s="1036"/>
+      <c r="B4" s="1037"/>
+      <c r="C4" s="1037"/>
       <c r="D4" s="842"/>
-      <c r="E4" s="940" t="s">
+      <c r="E4" s="1037" t="s">
         <v>234</v>
       </c>
-      <c r="F4" s="940"/>
-      <c r="G4" s="940"/>
+      <c r="F4" s="1037"/>
+      <c r="G4" s="1037"/>
       <c r="H4" s="843"/>
       <c r="I4" s="844"/>
       <c r="J4" s="843" t="s">
@@ -61742,21 +61763,21 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="956"/>
-      <c r="B5" s="957"/>
-      <c r="C5" s="957"/>
+      <c r="A5" s="1038"/>
+      <c r="B5" s="1039"/>
+      <c r="C5" s="1039"/>
       <c r="D5" s="845">
         <v>16</v>
       </c>
-      <c r="E5" s="957"/>
-      <c r="F5" s="957"/>
-      <c r="G5" s="957"/>
+      <c r="E5" s="1039"/>
+      <c r="F5" s="1039"/>
+      <c r="G5" s="1039"/>
       <c r="H5" s="843"/>
       <c r="I5" s="844"/>
       <c r="J5" s="843" t="s">
         <v>235</v>
       </c>
-      <c r="L5" s="936" t="s">
+      <c r="L5" s="1040" t="s">
         <v>236</v>
       </c>
       <c r="M5" s="840" t="s">
@@ -61764,18 +61785,18 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="951" t="s">
+      <c r="A6" s="1043" t="s">
         <v>237</v>
       </c>
-      <c r="B6" s="952"/>
+      <c r="B6" s="1044"/>
       <c r="C6" s="886">
         <v>49</v>
       </c>
       <c r="D6" s="887"/>
-      <c r="E6" s="953" t="s">
+      <c r="E6" s="1045" t="s">
         <v>238</v>
       </c>
-      <c r="F6" s="953"/>
+      <c r="F6" s="1045"/>
       <c r="G6" s="886">
         <f>'EEFF Las Sabrositas Clase'!X66</f>
         <v>-16</v>
@@ -61790,41 +61811,41 @@
       <c r="J6" s="849" t="s">
         <v>240</v>
       </c>
-      <c r="L6" s="937"/>
+      <c r="L6" s="1041"/>
       <c r="M6" s="840" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="933"/>
-      <c r="B7" s="934"/>
+      <c r="A7" s="1046"/>
+      <c r="B7" s="1047"/>
       <c r="C7" s="850"/>
       <c r="D7" s="845">
         <v>0</v>
       </c>
-      <c r="E7" s="934"/>
-      <c r="F7" s="934"/>
+      <c r="E7" s="1047"/>
+      <c r="F7" s="1047"/>
       <c r="G7" s="850"/>
       <c r="H7" s="847"/>
       <c r="I7" s="851"/>
       <c r="J7" s="849" t="s">
         <v>242</v>
       </c>
-      <c r="L7" s="938"/>
+      <c r="L7" s="1042"/>
     </row>
     <row r="8" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="954" t="s">
+      <c r="A8" s="1028" t="s">
         <v>243</v>
       </c>
-      <c r="B8" s="955"/>
+      <c r="B8" s="1029"/>
       <c r="C8" s="881">
         <v>0</v>
       </c>
       <c r="D8" s="882"/>
-      <c r="E8" s="955" t="s">
+      <c r="E8" s="1029" t="s">
         <v>244</v>
       </c>
-      <c r="F8" s="955"/>
+      <c r="F8" s="1029"/>
       <c r="G8" s="883">
         <f>'EEFF Las Sabrositas Clase'!Z66</f>
         <v>-50</v>
@@ -61841,8 +61862,8 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="933"/>
-      <c r="B9" s="934"/>
+      <c r="A9" s="1046"/>
+      <c r="B9" s="1047"/>
       <c r="C9" s="850"/>
       <c r="D9" s="843"/>
       <c r="E9" s="854" t="s">
@@ -61871,7 +61892,7 @@
       <c r="H10" s="857"/>
       <c r="I10" s="858"/>
       <c r="J10" s="854"/>
-      <c r="L10" s="936" t="s">
+      <c r="L10" s="1040" t="s">
         <v>250</v>
       </c>
       <c r="M10" s="840" t="s">
@@ -61883,35 +61904,35 @@
       <c r="B11" s="843"/>
       <c r="C11" s="843"/>
       <c r="D11" s="856"/>
-      <c r="E11" s="935" t="s">
+      <c r="E11" s="1048" t="s">
         <v>251</v>
       </c>
-      <c r="F11" s="935"/>
+      <c r="F11" s="1048"/>
       <c r="G11" s="850"/>
       <c r="H11" s="860"/>
       <c r="I11" s="851"/>
       <c r="J11" s="849" t="s">
         <v>147</v>
       </c>
-      <c r="L11" s="937"/>
+      <c r="L11" s="1041"/>
       <c r="M11" s="840" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="941" t="s">
+      <c r="A12" s="1049" t="s">
         <v>253</v>
       </c>
-      <c r="B12" s="942"/>
+      <c r="B12" s="1050"/>
       <c r="C12" s="890">
         <f>'EEFF Las Sabrositas Clase'!AB65</f>
         <v>100</v>
       </c>
       <c r="D12" s="891"/>
-      <c r="E12" s="943" t="s">
+      <c r="E12" s="1051" t="s">
         <v>254</v>
       </c>
-      <c r="F12" s="943"/>
+      <c r="F12" s="1051"/>
       <c r="G12" s="892">
         <f>'EEFF Las Sabrositas Clase'!AB66</f>
         <v>0</v>
@@ -61926,7 +61947,7 @@
       <c r="J12" s="861" t="s">
         <v>256</v>
       </c>
-      <c r="L12" s="938"/>
+      <c r="L12" s="1042"/>
     </row>
     <row r="13" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="862"/>
@@ -61959,18 +61980,18 @@
       <c r="J14" s="861"/>
     </row>
     <row r="15" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="927" t="s">
+      <c r="A15" s="1052" t="s">
         <v>258</v>
       </c>
-      <c r="B15" s="928"/>
+      <c r="B15" s="1053"/>
       <c r="C15" s="846"/>
       <c r="D15" s="868" t="s">
         <v>259</v>
       </c>
-      <c r="E15" s="935" t="s">
+      <c r="E15" s="1048" t="s">
         <v>260</v>
       </c>
-      <c r="F15" s="935"/>
+      <c r="F15" s="1048"/>
       <c r="G15" s="846">
         <f>-I15</f>
         <v>-83</v>
@@ -62006,10 +62027,10 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="944" t="s">
+      <c r="A17" s="1054" t="s">
         <v>264</v>
       </c>
-      <c r="B17" s="945"/>
+      <c r="B17" s="1055"/>
       <c r="C17" s="869">
         <f>C6+C8+C12+C15</f>
         <v>149</v>
@@ -62017,10 +62038,10 @@
       <c r="D17" s="870" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="946" t="s">
+      <c r="E17" s="1056" t="s">
         <v>265</v>
       </c>
-      <c r="F17" s="946"/>
+      <c r="F17" s="1056"/>
       <c r="G17" s="869">
         <f>G6+G8+G12+G15</f>
         <v>-149</v>
@@ -62042,64 +62063,64 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="947" t="s">
+      <c r="A19" s="1030" t="s">
         <v>229</v>
       </c>
-      <c r="B19" s="948"/>
-      <c r="C19" s="948"/>
-      <c r="D19" s="948"/>
-      <c r="E19" s="948"/>
-      <c r="F19" s="948"/>
-      <c r="G19" s="948"/>
-      <c r="H19" s="948"/>
-      <c r="I19" s="949"/>
+      <c r="B19" s="1031"/>
+      <c r="C19" s="1031"/>
+      <c r="D19" s="1031"/>
+      <c r="E19" s="1031"/>
+      <c r="F19" s="1031"/>
+      <c r="G19" s="1031"/>
+      <c r="H19" s="1031"/>
+      <c r="I19" s="1032"/>
       <c r="J19" s="839"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="931" t="s">
+      <c r="A20" s="1033" t="s">
         <v>269</v>
       </c>
-      <c r="B20" s="932"/>
-      <c r="C20" s="932"/>
-      <c r="D20" s="932"/>
-      <c r="E20" s="932"/>
-      <c r="F20" s="932"/>
-      <c r="G20" s="932"/>
-      <c r="H20" s="932"/>
-      <c r="I20" s="950"/>
+      <c r="B20" s="1034"/>
+      <c r="C20" s="1034"/>
+      <c r="D20" s="1034"/>
+      <c r="E20" s="1034"/>
+      <c r="F20" s="1034"/>
+      <c r="G20" s="1034"/>
+      <c r="H20" s="1034"/>
+      <c r="I20" s="1035"/>
       <c r="J20" s="839" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A21" s="931" t="s">
+      <c r="A21" s="1033" t="s">
         <v>231</v>
       </c>
-      <c r="B21" s="932"/>
-      <c r="C21" s="932"/>
-      <c r="D21" s="932"/>
-      <c r="E21" s="932"/>
-      <c r="F21" s="932"/>
-      <c r="G21" s="932"/>
-      <c r="H21" s="932"/>
-      <c r="I21" s="950"/>
+      <c r="B21" s="1034"/>
+      <c r="C21" s="1034"/>
+      <c r="D21" s="1034"/>
+      <c r="E21" s="1034"/>
+      <c r="F21" s="1034"/>
+      <c r="G21" s="1034"/>
+      <c r="H21" s="1034"/>
+      <c r="I21" s="1035"/>
       <c r="J21" s="839"/>
       <c r="N21" s="841" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="939" t="s">
+      <c r="A22" s="1036" t="s">
         <v>233</v>
       </c>
-      <c r="B22" s="940"/>
-      <c r="C22" s="940"/>
+      <c r="B22" s="1037"/>
+      <c r="C22" s="1037"/>
       <c r="D22" s="842"/>
-      <c r="E22" s="940" t="s">
+      <c r="E22" s="1037" t="s">
         <v>234</v>
       </c>
-      <c r="F22" s="940"/>
-      <c r="G22" s="940"/>
+      <c r="F22" s="1037"/>
+      <c r="G22" s="1037"/>
       <c r="H22" s="843"/>
       <c r="I22" s="844"/>
       <c r="J22" s="843"/>
@@ -62111,15 +62132,15 @@
       <c r="D23" s="845">
         <v>3</v>
       </c>
-      <c r="E23" s="929"/>
-      <c r="F23" s="929"/>
+      <c r="E23" s="1057"/>
+      <c r="F23" s="1057"/>
       <c r="G23" s="850"/>
       <c r="H23" s="843"/>
       <c r="I23" s="844"/>
       <c r="J23" s="843" t="s">
         <v>146</v>
       </c>
-      <c r="L23" s="936" t="s">
+      <c r="L23" s="1040" t="s">
         <v>236</v>
       </c>
       <c r="M23" s="840" t="s">
@@ -62127,19 +62148,19 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="927" t="s">
+      <c r="A24" s="1052" t="s">
         <v>271</v>
       </c>
-      <c r="B24" s="928"/>
+      <c r="B24" s="1053"/>
       <c r="C24" s="846">
         <f>'EEFF Las Sabrositas Clase'!AF65</f>
         <v>36</v>
       </c>
       <c r="D24" s="843"/>
-      <c r="E24" s="929" t="s">
+      <c r="E24" s="1057" t="s">
         <v>272</v>
       </c>
-      <c r="F24" s="929"/>
+      <c r="F24" s="1057"/>
       <c r="G24" s="852">
         <f>'EEFF Las Sabrositas Clase'!AF66</f>
         <v>-3</v>
@@ -62154,42 +62175,42 @@
       <c r="J24" s="843" t="s">
         <v>235</v>
       </c>
-      <c r="L24" s="937"/>
+      <c r="L24" s="1041"/>
       <c r="M24" s="840" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="933"/>
-      <c r="B25" s="934"/>
+      <c r="A25" s="1046"/>
+      <c r="B25" s="1047"/>
       <c r="C25" s="850"/>
       <c r="D25" s="845">
         <v>0</v>
       </c>
-      <c r="E25" s="934"/>
-      <c r="F25" s="934"/>
+      <c r="E25" s="1047"/>
+      <c r="F25" s="1047"/>
       <c r="G25" s="850"/>
       <c r="H25" s="847"/>
       <c r="I25" s="851"/>
       <c r="J25" s="849" t="s">
         <v>240</v>
       </c>
-      <c r="L25" s="938"/>
+      <c r="L25" s="1042"/>
     </row>
     <row r="26" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="927" t="s">
+      <c r="A26" s="1052" t="s">
         <v>243</v>
       </c>
-      <c r="B26" s="928"/>
+      <c r="B26" s="1053"/>
       <c r="C26" s="846">
         <f>'EEFF Las Sabrositas Clase'!AH65</f>
         <v>0</v>
       </c>
       <c r="D26" s="843"/>
-      <c r="E26" s="928" t="s">
+      <c r="E26" s="1053" t="s">
         <v>244</v>
       </c>
-      <c r="F26" s="928"/>
+      <c r="F26" s="1053"/>
       <c r="G26" s="852">
         <f>'EEFF Las Sabrositas Clase'!AH66</f>
         <v>-50</v>
@@ -62206,12 +62227,12 @@
       </c>
     </row>
     <row r="27" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="933"/>
-      <c r="B27" s="934"/>
+      <c r="A27" s="1046"/>
+      <c r="B27" s="1047"/>
       <c r="C27" s="850"/>
       <c r="D27" s="843"/>
-      <c r="E27" s="935"/>
-      <c r="F27" s="935"/>
+      <c r="E27" s="1048"/>
+      <c r="F27" s="1048"/>
       <c r="G27" s="850"/>
       <c r="H27" s="847"/>
       <c r="I27" s="851"/>
@@ -62236,7 +62257,7 @@
       <c r="J28" s="849" t="s">
         <v>248</v>
       </c>
-      <c r="L28" s="936" t="s">
+      <c r="L28" s="1040" t="s">
         <v>250</v>
       </c>
       <c r="M28" s="840" t="s">
@@ -62244,19 +62265,19 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="927" t="s">
+      <c r="A29" s="1052" t="s">
         <v>253</v>
       </c>
-      <c r="B29" s="928"/>
+      <c r="B29" s="1053"/>
       <c r="C29" s="846">
         <f>'EEFF Las Sabrositas Clase'!AJ65</f>
         <v>100</v>
       </c>
       <c r="D29" s="843"/>
-      <c r="E29" s="929" t="s">
+      <c r="E29" s="1057" t="s">
         <v>254</v>
       </c>
-      <c r="F29" s="929"/>
+      <c r="F29" s="1057"/>
       <c r="G29" s="852">
         <f>'EEFF Las Sabrositas Clase'!AJ66</f>
         <v>0</v>
@@ -62269,7 +62290,7 @@
         <v>100</v>
       </c>
       <c r="J29" s="854"/>
-      <c r="L29" s="937"/>
+      <c r="L29" s="1041"/>
       <c r="M29" s="840" t="s">
         <v>274</v>
       </c>
@@ -62291,26 +62312,26 @@
       <c r="J30" s="849" t="s">
         <v>147</v>
       </c>
-      <c r="L30" s="938"/>
+      <c r="L30" s="1042"/>
       <c r="M30" s="840" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="927" t="s">
+      <c r="A31" s="1052" t="s">
         <v>276</v>
       </c>
-      <c r="B31" s="928"/>
+      <c r="B31" s="1053"/>
       <c r="C31" s="846">
         <v>0</v>
       </c>
       <c r="D31" s="868" t="s">
         <v>277</v>
       </c>
-      <c r="E31" s="929" t="s">
+      <c r="E31" s="1057" t="s">
         <v>278</v>
       </c>
-      <c r="F31" s="929"/>
+      <c r="F31" s="1057"/>
       <c r="G31" s="846">
         <f>-I31</f>
         <v>-83</v>
@@ -62339,10 +62360,10 @@
       <c r="J32" s="861" t="s">
         <v>257</v>
       </c>
-      <c r="L32" s="930" t="s">
+      <c r="L32" s="1058" t="s">
         <v>279</v>
       </c>
-      <c r="M32" s="930"/>
+      <c r="M32" s="1058"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="859"/>
@@ -62355,14 +62376,14 @@
       <c r="H33" s="854"/>
       <c r="I33" s="867"/>
       <c r="J33" s="861"/>
-      <c r="L33" s="930"/>
-      <c r="M33" s="930"/>
+      <c r="L33" s="1058"/>
+      <c r="M33" s="1058"/>
     </row>
     <row r="34" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="931" t="s">
+      <c r="A34" s="1033" t="s">
         <v>264</v>
       </c>
-      <c r="B34" s="932"/>
+      <c r="B34" s="1034"/>
       <c r="C34" s="846">
         <f>C24+C26+C29+C31</f>
         <v>136</v>
@@ -62370,10 +62391,10 @@
       <c r="D34" s="839" t="s">
         <v>35</v>
       </c>
-      <c r="E34" s="929" t="s">
+      <c r="E34" s="1057" t="s">
         <v>265</v>
       </c>
-      <c r="F34" s="929"/>
+      <c r="F34" s="1057"/>
       <c r="G34" s="846">
         <f>G24+G26+G29+G31</f>
         <v>-136</v>
@@ -62387,8 +62408,8 @@
       <c r="J34" s="861" t="s">
         <v>148</v>
       </c>
-      <c r="L34" s="930"/>
-      <c r="M34" s="930"/>
+      <c r="L34" s="1058"/>
+      <c r="M34" s="1058"/>
     </row>
     <row r="35" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="877"/>
@@ -62424,20 +62445,24 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="L5:L7"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="L32:M34"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="L28:L30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="E25:F25"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="E22:G22"/>
     <mergeCell ref="A9:B9"/>
@@ -62452,24 +62477,20 @@
     <mergeCell ref="A19:I19"/>
     <mergeCell ref="A20:I20"/>
     <mergeCell ref="A21:I21"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="L28:L30"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="L32:M34"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="E5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -62653,100 +62674,100 @@
       <c r="C9" s="307" t="s">
         <v>124</v>
       </c>
-      <c r="M9" s="958" t="s">
+      <c r="M9" s="1059" t="s">
         <v>125</v>
       </c>
-      <c r="N9" s="970"/>
-      <c r="O9" s="970"/>
-      <c r="P9" s="959"/>
-      <c r="R9" s="958" t="s">
+      <c r="N9" s="1060"/>
+      <c r="O9" s="1060"/>
+      <c r="P9" s="1061"/>
+      <c r="R9" s="1059" t="s">
         <v>126</v>
       </c>
-      <c r="S9" s="970"/>
-      <c r="T9" s="970"/>
-      <c r="U9" s="959"/>
-      <c r="W9" s="971" t="s">
+      <c r="S9" s="1060"/>
+      <c r="T9" s="1060"/>
+      <c r="U9" s="1061"/>
+      <c r="W9" s="1062" t="s">
         <v>127</v>
       </c>
-      <c r="X9" s="972"/>
-      <c r="Y9" s="972"/>
-      <c r="Z9" s="972"/>
-      <c r="AA9" s="972"/>
-      <c r="AB9" s="972"/>
-      <c r="AC9" s="973"/>
-      <c r="AE9" s="971" t="s">
+      <c r="X9" s="1063"/>
+      <c r="Y9" s="1063"/>
+      <c r="Z9" s="1063"/>
+      <c r="AA9" s="1063"/>
+      <c r="AB9" s="1063"/>
+      <c r="AC9" s="1064"/>
+      <c r="AE9" s="1062" t="s">
         <v>128</v>
       </c>
-      <c r="AF9" s="972"/>
-      <c r="AG9" s="972"/>
-      <c r="AH9" s="972"/>
-      <c r="AI9" s="972"/>
-      <c r="AJ9" s="972"/>
-      <c r="AK9" s="973"/>
+      <c r="AF9" s="1063"/>
+      <c r="AG9" s="1063"/>
+      <c r="AH9" s="1063"/>
+      <c r="AI9" s="1063"/>
+      <c r="AJ9" s="1063"/>
+      <c r="AK9" s="1064"/>
     </row>
     <row r="10" spans="2:38" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="958" t="s">
+      <c r="B10" s="1059" t="s">
         <v>129</v>
       </c>
-      <c r="C10" s="959"/>
+      <c r="C10" s="1061"/>
       <c r="D10" s="308"/>
-      <c r="E10" s="958" t="s">
+      <c r="E10" s="1059" t="s">
         <v>130</v>
       </c>
-      <c r="F10" s="970"/>
-      <c r="G10" s="970"/>
-      <c r="H10" s="959"/>
+      <c r="F10" s="1060"/>
+      <c r="G10" s="1060"/>
+      <c r="H10" s="1061"/>
       <c r="I10" s="308"/>
-      <c r="J10" s="958" t="s">
+      <c r="J10" s="1059" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="959"/>
-      <c r="M10" s="958" t="s">
+      <c r="K10" s="1061"/>
+      <c r="M10" s="1059" t="s">
         <v>131</v>
       </c>
-      <c r="N10" s="959"/>
-      <c r="O10" s="958" t="s">
+      <c r="N10" s="1061"/>
+      <c r="O10" s="1059" t="s">
         <v>132</v>
       </c>
-      <c r="P10" s="959"/>
+      <c r="P10" s="1061"/>
       <c r="Q10" s="308"/>
-      <c r="R10" s="958" t="s">
+      <c r="R10" s="1059" t="s">
         <v>133</v>
       </c>
-      <c r="S10" s="959"/>
-      <c r="T10" s="958" t="s">
+      <c r="S10" s="1061"/>
+      <c r="T10" s="1059" t="s">
         <v>134</v>
       </c>
-      <c r="U10" s="959"/>
+      <c r="U10" s="1061"/>
       <c r="V10" s="308"/>
-      <c r="W10" s="958" t="s">
+      <c r="W10" s="1059" t="s">
         <v>135</v>
       </c>
-      <c r="X10" s="959"/>
-      <c r="Y10" s="958" t="s">
+      <c r="X10" s="1061"/>
+      <c r="Y10" s="1059" t="s">
         <v>136</v>
       </c>
-      <c r="Z10" s="959"/>
-      <c r="AA10" s="958" t="s">
+      <c r="Z10" s="1061"/>
+      <c r="AA10" s="1059" t="s">
         <v>137</v>
       </c>
-      <c r="AB10" s="959"/>
+      <c r="AB10" s="1061"/>
       <c r="AC10" s="309" t="s">
         <v>138</v>
       </c>
       <c r="AD10" s="308"/>
-      <c r="AE10" s="974" t="s">
+      <c r="AE10" s="1065" t="s">
         <v>135</v>
       </c>
-      <c r="AF10" s="975"/>
-      <c r="AG10" s="958" t="s">
+      <c r="AF10" s="1066"/>
+      <c r="AG10" s="1059" t="s">
         <v>136</v>
       </c>
-      <c r="AH10" s="959"/>
-      <c r="AI10" s="958" t="s">
+      <c r="AH10" s="1061"/>
+      <c r="AI10" s="1059" t="s">
         <v>137</v>
       </c>
-      <c r="AJ10" s="959"/>
+      <c r="AJ10" s="1061"/>
       <c r="AK10" s="309" t="s">
         <v>138</v>
       </c>
@@ -66731,33 +66752,33 @@
       </c>
       <c r="O68" s="368"/>
       <c r="P68" s="369"/>
-      <c r="R68" s="960" t="s">
+      <c r="R68" s="1067" t="s">
         <v>221</v>
       </c>
-      <c r="S68" s="961"/>
+      <c r="S68" s="1068"/>
       <c r="T68" s="112"/>
       <c r="U68" s="146">
         <v>0</v>
       </c>
-      <c r="W68" s="962" t="s">
+      <c r="W68" s="1069" t="s">
         <v>221</v>
       </c>
-      <c r="X68" s="963"/>
-      <c r="Y68" s="963"/>
-      <c r="Z68" s="963"/>
-      <c r="AA68" s="963"/>
-      <c r="AB68" s="964"/>
+      <c r="X68" s="1070"/>
+      <c r="Y68" s="1070"/>
+      <c r="Z68" s="1070"/>
+      <c r="AA68" s="1070"/>
+      <c r="AB68" s="1071"/>
       <c r="AC68" s="203">
         <v>0</v>
       </c>
-      <c r="AE68" s="962" t="s">
+      <c r="AE68" s="1069" t="s">
         <v>221</v>
       </c>
-      <c r="AF68" s="963"/>
-      <c r="AG68" s="963"/>
-      <c r="AH68" s="963"/>
-      <c r="AI68" s="963"/>
-      <c r="AJ68" s="964"/>
+      <c r="AF68" s="1070"/>
+      <c r="AG68" s="1070"/>
+      <c r="AH68" s="1070"/>
+      <c r="AI68" s="1070"/>
+      <c r="AJ68" s="1071"/>
       <c r="AK68" s="203">
         <v>0</v>
       </c>
@@ -66800,35 +66821,35 @@
         <f>SUM(P59:P68)</f>
         <v>254</v>
       </c>
-      <c r="R69" s="965" t="s">
+      <c r="R69" s="1072" t="s">
         <v>222</v>
       </c>
-      <c r="S69" s="966"/>
+      <c r="S69" s="1073"/>
       <c r="T69" s="116"/>
       <c r="U69" s="349">
         <f>U68+U67</f>
         <v>83</v>
       </c>
-      <c r="W69" s="967" t="s">
+      <c r="W69" s="1074" t="s">
         <v>222</v>
       </c>
-      <c r="X69" s="968"/>
-      <c r="Y69" s="968"/>
-      <c r="Z69" s="968"/>
-      <c r="AA69" s="968"/>
-      <c r="AB69" s="969"/>
+      <c r="X69" s="1075"/>
+      <c r="Y69" s="1075"/>
+      <c r="Z69" s="1075"/>
+      <c r="AA69" s="1075"/>
+      <c r="AB69" s="1076"/>
       <c r="AC69" s="323">
         <f>AC67</f>
         <v>83</v>
       </c>
-      <c r="AE69" s="967" t="s">
+      <c r="AE69" s="1074" t="s">
         <v>222</v>
       </c>
-      <c r="AF69" s="968"/>
-      <c r="AG69" s="968"/>
-      <c r="AH69" s="968"/>
-      <c r="AI69" s="968"/>
-      <c r="AJ69" s="969"/>
+      <c r="AF69" s="1075"/>
+      <c r="AG69" s="1075"/>
+      <c r="AH69" s="1075"/>
+      <c r="AI69" s="1075"/>
+      <c r="AJ69" s="1076"/>
       <c r="AK69" s="323">
         <f>AK67</f>
         <v>83</v>
@@ -66836,6 +66857,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="R68:S68"/>
+    <mergeCell ref="W68:AB68"/>
+    <mergeCell ref="AE68:AJ68"/>
+    <mergeCell ref="R69:S69"/>
+    <mergeCell ref="W69:AB69"/>
+    <mergeCell ref="AE69:AJ69"/>
     <mergeCell ref="M9:P9"/>
     <mergeCell ref="R9:U9"/>
     <mergeCell ref="W9:AC9"/>
@@ -66852,13 +66880,6 @@
     <mergeCell ref="Y10:Z10"/>
     <mergeCell ref="AA10:AB10"/>
     <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="R68:S68"/>
-    <mergeCell ref="W68:AB68"/>
-    <mergeCell ref="AE68:AJ68"/>
-    <mergeCell ref="R69:S69"/>
-    <mergeCell ref="W69:AB69"/>
-    <mergeCell ref="AE69:AJ69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -67660,6 +67681,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010070AEB80C04D9D64CAA18E5BB72375A6E" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="02c201e7bdc0c2b785a9adc943e3a5e2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7247f51c-58c2-4938-b7ae-64595e5c800e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b096ba483196ab815c31f2c57f177809" ns2:_="">
     <xsd:import namespace="7247f51c-58c2-4938-b7ae-64595e5c800e"/>
@@ -67803,15 +67833,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{267B1029-35A0-47E3-B585-B43A52F24FD4}">
   <ds:schemaRefs>
@@ -67829,6 +67850,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB3125E5-E468-4580-A143-0EEDB442D188}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{360C7B05-4565-40AD-8C45-2F12C1610D52}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -67844,12 +67873,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB3125E5-E468-4580-A143-0EEDB442D188}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>